--- a/data/foot_lengths.xlsx
+++ b/data/foot_lengths.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verci\Documents\Python Code\Niki_Shit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verci\Documents\Python Code\Niki_Shit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{619C3C3D-9AA0-41E6-B66B-C4CFFFA35729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6FA501-D8E3-45C7-8A24-4A9AEC233202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3E8F0065-E5C4-4C81-A89E-57E0CF6FD9E9}"/>
   </bookViews>
@@ -16,36 +16,21 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$2:$C$315</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$2:$D$315</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$G$2:$G$315</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$D$2:$D$315</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$E$2:$E$315</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$E$2:$E$315</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$G$2:$G$315</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$H$2:$H$315</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$H$2:$H$315</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$H$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$H$2:$H$315</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$2:$F$315</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$F$2:$F$315</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$2:$D$692</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$H$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$H$2:$H$692</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$2:$C$692</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$G$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$2:$G$692</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$F$2:$F$315</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$2:$C$315</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$F$2:$F$692</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$E$2:$E$692</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="145">
   <si>
     <t>MOUSE CODE</t>
   </si>
@@ -90,21 +75,6 @@
   </si>
   <si>
     <t>NPL</t>
-  </si>
-  <si>
-    <t>NO1B</t>
-  </si>
-  <si>
-    <t>NO2B</t>
-  </si>
-  <si>
-    <t>NO3B</t>
-  </si>
-  <si>
-    <t>NO4B</t>
-  </si>
-  <si>
-    <t>NO5B</t>
   </si>
   <si>
     <t>P1B</t>
@@ -152,21 +122,6 @@
     <t>S5B</t>
   </si>
   <si>
-    <t>NO1W1</t>
-  </si>
-  <si>
-    <t>NO2W1</t>
-  </si>
-  <si>
-    <t>NO3W1</t>
-  </si>
-  <si>
-    <t>NO4W1</t>
-  </si>
-  <si>
-    <t>NO5W1</t>
-  </si>
-  <si>
     <t>P1W1</t>
   </si>
   <si>
@@ -212,21 +167,6 @@
     <t>S5W1</t>
   </si>
   <si>
-    <t>NO1W2</t>
-  </si>
-  <si>
-    <t>NO2W2</t>
-  </si>
-  <si>
-    <t>NO3W2</t>
-  </si>
-  <si>
-    <t>NO4W2</t>
-  </si>
-  <si>
-    <t>NO5W2</t>
-  </si>
-  <si>
     <t>P1W2</t>
   </si>
   <si>
@@ -259,12 +199,300 @@
   <si>
     <t>S5W2</t>
   </si>
+  <si>
+    <t>C1W3</t>
+  </si>
+  <si>
+    <t>C2W3</t>
+  </si>
+  <si>
+    <t>C3W3</t>
+  </si>
+  <si>
+    <t>C4W3</t>
+  </si>
+  <si>
+    <t>C5W3</t>
+  </si>
+  <si>
+    <t>P1W3</t>
+  </si>
+  <si>
+    <t>P2W3</t>
+  </si>
+  <si>
+    <t>P3W3</t>
+  </si>
+  <si>
+    <t>P4W3</t>
+  </si>
+  <si>
+    <t>P5W3</t>
+  </si>
+  <si>
+    <t>N1W3</t>
+  </si>
+  <si>
+    <t>N2W3</t>
+  </si>
+  <si>
+    <t>N3W3</t>
+  </si>
+  <si>
+    <t>N4W3</t>
+  </si>
+  <si>
+    <t>N5W3</t>
+  </si>
+  <si>
+    <t>S1W3</t>
+  </si>
+  <si>
+    <t>S2W3</t>
+  </si>
+  <si>
+    <t>S3W3</t>
+  </si>
+  <si>
+    <t>S4W3</t>
+  </si>
+  <si>
+    <t>S5W3</t>
+  </si>
+  <si>
+    <t>C1W4</t>
+  </si>
+  <si>
+    <t>C2W4</t>
+  </si>
+  <si>
+    <t>C3W4</t>
+  </si>
+  <si>
+    <t>C4W4</t>
+  </si>
+  <si>
+    <t>C5W4</t>
+  </si>
+  <si>
+    <t>P1W4</t>
+  </si>
+  <si>
+    <t>P2W4</t>
+  </si>
+  <si>
+    <t>P3W4</t>
+  </si>
+  <si>
+    <t>P4W4</t>
+  </si>
+  <si>
+    <t>P5W4</t>
+  </si>
+  <si>
+    <t>N1W4</t>
+  </si>
+  <si>
+    <t>N2W4</t>
+  </si>
+  <si>
+    <t>N3W4</t>
+  </si>
+  <si>
+    <t>N4W4</t>
+  </si>
+  <si>
+    <t>N5W4</t>
+  </si>
+  <si>
+    <t>S1W4</t>
+  </si>
+  <si>
+    <t>S2W4</t>
+  </si>
+  <si>
+    <t>S3W4</t>
+  </si>
+  <si>
+    <t>S4W4</t>
+  </si>
+  <si>
+    <t>S5W4</t>
+  </si>
+  <si>
+    <t>C1W5</t>
+  </si>
+  <si>
+    <t>C2W5</t>
+  </si>
+  <si>
+    <t>C3W5</t>
+  </si>
+  <si>
+    <t>C4W5</t>
+  </si>
+  <si>
+    <t>C5W5</t>
+  </si>
+  <si>
+    <t>P1W5</t>
+  </si>
+  <si>
+    <t>P2W5</t>
+  </si>
+  <si>
+    <t>P3W5</t>
+  </si>
+  <si>
+    <t>P4W5</t>
+  </si>
+  <si>
+    <t>P5W5</t>
+  </si>
+  <si>
+    <t>N1W5</t>
+  </si>
+  <si>
+    <t>N2W5</t>
+  </si>
+  <si>
+    <t>N3W5</t>
+  </si>
+  <si>
+    <t>N4W5</t>
+  </si>
+  <si>
+    <t>N5W5</t>
+  </si>
+  <si>
+    <t>S1W5</t>
+  </si>
+  <si>
+    <t>S2W5</t>
+  </si>
+  <si>
+    <t>S3W5</t>
+  </si>
+  <si>
+    <t>S4W5</t>
+  </si>
+  <si>
+    <t>S5W5</t>
+  </si>
+  <si>
+    <t>C1W6</t>
+  </si>
+  <si>
+    <t>C2W6</t>
+  </si>
+  <si>
+    <t>C3W6</t>
+  </si>
+  <si>
+    <t>C4W6</t>
+  </si>
+  <si>
+    <t>C5W6</t>
+  </si>
+  <si>
+    <t>P1W6</t>
+  </si>
+  <si>
+    <t>P2W6</t>
+  </si>
+  <si>
+    <t>P3W6</t>
+  </si>
+  <si>
+    <t>P4W6</t>
+  </si>
+  <si>
+    <t>P5W6</t>
+  </si>
+  <si>
+    <t>N1W6</t>
+  </si>
+  <si>
+    <t>N2W6</t>
+  </si>
+  <si>
+    <t>N3W6</t>
+  </si>
+  <si>
+    <t>N4W6</t>
+  </si>
+  <si>
+    <t>N5W6</t>
+  </si>
+  <si>
+    <t>S1W6</t>
+  </si>
+  <si>
+    <t>S2W6</t>
+  </si>
+  <si>
+    <t>S3W6</t>
+  </si>
+  <si>
+    <t>S4W6</t>
+  </si>
+  <si>
+    <t>S5W6</t>
+  </si>
+  <si>
+    <t>C1B</t>
+  </si>
+  <si>
+    <t>C2B</t>
+  </si>
+  <si>
+    <t>C3B</t>
+  </si>
+  <si>
+    <t>C4B</t>
+  </si>
+  <si>
+    <t>C5B</t>
+  </si>
+  <si>
+    <t>C1W1</t>
+  </si>
+  <si>
+    <t>C2W2</t>
+  </si>
+  <si>
+    <t>C2W1</t>
+  </si>
+  <si>
+    <t>C3W1</t>
+  </si>
+  <si>
+    <t>C3W2</t>
+  </si>
+  <si>
+    <t>C4W1</t>
+  </si>
+  <si>
+    <t>C4W2</t>
+  </si>
+  <si>
+    <t>C5W1</t>
+  </si>
+  <si>
+    <t>C5W2</t>
+  </si>
+  <si>
+    <t>C1W2</t>
+  </si>
+  <si>
+    <t>MISSING</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +517,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -362,7 +596,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -400,7 +634,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{69FD14DA-1F86-46FF-A69F-9771E6875174}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>ETS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -429,7 +663,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -467,7 +701,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{80330DF9-D9F5-4FA2-8834-D59594529FC8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EIT</cx:v>
             </cx:txData>
           </cx:tx>
@@ -496,7 +730,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -534,7 +768,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{81DDE4B1-29EA-4805-9F08-1AFDB5D3F82D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>EPL</cx:v>
             </cx:txData>
           </cx:tx>
@@ -563,7 +797,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -601,7 +835,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{B20D8E87-8395-4D23-9A76-2202A946B81F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>NIT</cx:v>
             </cx:txData>
           </cx:tx>
@@ -697,7 +931,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -735,7 +969,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{B6848E0C-7204-4231-8D4E-5AB622E09611}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>NPL</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4174,8 +4408,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10373320" y="342305"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="10363200" y="342900"/>
+              <a:ext cx="4567832" cy="2834878"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4252,8 +4486,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15254883" y="342305"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="15240000" y="342900"/>
+              <a:ext cx="4567833" cy="2834878"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4330,8 +4564,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10373320" y="3244453"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="10363200" y="3343275"/>
+              <a:ext cx="4567832" cy="2834878"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4408,8 +4642,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5491758" y="3244453"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5486400" y="3343275"/>
+              <a:ext cx="4567833" cy="2834878"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4486,8 +4720,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15254883" y="3244453"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="15240000" y="3343275"/>
+              <a:ext cx="4567833" cy="2834878"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4837,10 +5071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69971E7D-D232-4485-A4B5-3EF310424272}">
-  <dimension ref="A1:H315"/>
+  <dimension ref="A1:H721"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I19" sqref="H19:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4873,7 +5107,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -4971,7 +5205,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -5069,7 +5303,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -5167,7 +5401,7 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -5289,7 +5523,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -5411,7 +5645,7 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -5557,7 +5791,7 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -5655,7 +5889,7 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -5825,7 +6059,7 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -5899,7 +6133,7 @@
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -6021,7 +6255,7 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B49" s="2">
         <v>1</v>
@@ -6119,7 +6353,7 @@
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B53" s="2">
         <v>1</v>
@@ -6241,7 +6475,7 @@
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B58" s="2">
         <v>1</v>
@@ -6387,7 +6621,7 @@
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
@@ -6509,7 +6743,7 @@
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B69" s="2">
         <v>1</v>
@@ -6631,7 +6865,7 @@
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
@@ -6753,7 +6987,7 @@
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B79" s="2">
         <v>1</v>
@@ -6851,7 +7085,7 @@
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B83" s="2">
         <v>1</v>
@@ -6949,7 +7183,7 @@
     </row>
     <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B87" s="2">
         <v>1</v>
@@ -7167,7 +7401,7 @@
     </row>
     <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B96" s="2">
         <v>1</v>
@@ -7289,7 +7523,7 @@
     </row>
     <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="B101" s="2">
         <v>1</v>
@@ -7459,7 +7693,7 @@
     </row>
     <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="B108" s="2">
         <v>1</v>
@@ -7533,7 +7767,7 @@
     </row>
     <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="B111" s="2">
         <v>1</v>
@@ -7655,7 +7889,7 @@
     </row>
     <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="B116" s="2">
         <v>1</v>
@@ -7777,7 +8011,7 @@
     </row>
     <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="B121" s="2">
         <v>1</v>
@@ -7947,7 +8181,7 @@
     </row>
     <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B128" s="2">
         <v>1</v>
@@ -8021,7 +8255,7 @@
     </row>
     <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B131" s="2">
         <v>1</v>
@@ -8071,7 +8305,7 @@
     </row>
     <row r="133" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B133" s="2">
         <v>1</v>
@@ -8193,7 +8427,7 @@
     </row>
     <row r="138" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B138" s="2">
         <v>1</v>
@@ -8315,7 +8549,7 @@
     </row>
     <row r="143" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B143" s="2">
         <v>1</v>
@@ -8437,7 +8671,7 @@
     </row>
     <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B148" s="2">
         <v>1</v>
@@ -8607,7 +8841,7 @@
     </row>
     <row r="155" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B155" s="2">
         <v>1</v>
@@ -8729,7 +8963,7 @@
     </row>
     <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B160" s="2">
         <v>1</v>
@@ -8827,7 +9061,7 @@
     </row>
     <row r="164" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B164" s="2">
         <v>1</v>
@@ -8949,7 +9183,7 @@
     </row>
     <row r="169" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B169" s="2">
         <v>1</v>
@@ -9071,7 +9305,7 @@
     </row>
     <row r="174" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="2">
@@ -9205,7 +9439,7 @@
     </row>
     <row r="180" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="3">
@@ -9339,7 +9573,7 @@
     </row>
     <row r="186" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="3">
@@ -9451,7 +9685,7 @@
     </row>
     <row r="191" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="3">
@@ -9673,7 +9907,7 @@
     </row>
     <row r="201" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="3">
@@ -9785,7 +10019,7 @@
     </row>
     <row r="206" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="3">
@@ -9919,7 +10153,7 @@
     </row>
     <row r="212" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="3">
@@ -10053,7 +10287,7 @@
     </row>
     <row r="218" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="3">
@@ -10143,7 +10377,7 @@
     </row>
     <row r="222" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="3">
@@ -10255,7 +10489,7 @@
     </row>
     <row r="227" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="3">
@@ -10389,7 +10623,7 @@
     </row>
     <row r="233" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B233" s="1"/>
       <c r="C233" s="3">
@@ -10523,7 +10757,7 @@
     </row>
     <row r="239" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B239" s="1"/>
       <c r="C239" s="3">
@@ -10657,7 +10891,7 @@
     </row>
     <row r="245" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B245" s="1"/>
       <c r="C245" s="3">
@@ -10857,7 +11091,7 @@
     </row>
     <row r="254" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B254" s="1"/>
       <c r="C254" s="3">
@@ -11057,7 +11291,7 @@
     </row>
     <row r="263" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B263" s="1"/>
       <c r="C263" s="3">
@@ -11191,7 +11425,7 @@
     </row>
     <row r="269" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B269" s="1"/>
       <c r="C269" s="3">
@@ -11281,7 +11515,7 @@
     </row>
     <row r="273" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B273" s="1"/>
       <c r="C273" s="3">
@@ -11393,7 +11627,7 @@
     </row>
     <row r="278" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B278" s="1"/>
       <c r="C278" s="3">
@@ -11549,7 +11783,7 @@
     </row>
     <row r="285" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B285" s="1"/>
       <c r="C285" s="3">
@@ -11683,7 +11917,7 @@
     </row>
     <row r="291" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B291" s="1"/>
       <c r="C291" s="3">
@@ -11795,7 +12029,7 @@
     </row>
     <row r="296" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B296" s="1"/>
       <c r="C296" s="3">
@@ -11863,7 +12097,7 @@
     </row>
     <row r="299" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B299" s="1"/>
       <c r="C299" s="3">
@@ -11931,7 +12165,7 @@
     </row>
     <row r="302" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B302" s="1"/>
       <c r="C302" s="3">
@@ -12043,7 +12277,7 @@
     </row>
     <row r="307" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B307" s="1"/>
       <c r="C307" s="3">
@@ -12133,7 +12367,7 @@
     </row>
     <row r="311" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B311" s="1"/>
       <c r="C311" s="3">
@@ -12243,8 +12477,8190 @@
         <v>11.24</v>
       </c>
     </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>49</v>
+      </c>
+      <c r="C316">
+        <v>9.07</v>
+      </c>
+      <c r="D316">
+        <v>5.97</v>
+      </c>
+      <c r="E316">
+        <v>9.6</v>
+      </c>
+      <c r="F316">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="G316">
+        <v>6.23</v>
+      </c>
+      <c r="H316">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C317">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="D317">
+        <v>6.13</v>
+      </c>
+      <c r="E317">
+        <v>9.4</v>
+      </c>
+      <c r="F317">
+        <v>9.64</v>
+      </c>
+      <c r="G317">
+        <v>6.71</v>
+      </c>
+      <c r="H317">
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C318">
+        <v>9.09</v>
+      </c>
+      <c r="D318">
+        <v>5.9</v>
+      </c>
+      <c r="E318">
+        <v>8.35</v>
+      </c>
+      <c r="F318">
+        <v>10.41</v>
+      </c>
+      <c r="G318">
+        <v>5.41</v>
+      </c>
+      <c r="H318">
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C319">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="D319">
+        <v>6.51</v>
+      </c>
+      <c r="E319">
+        <v>9.06</v>
+      </c>
+      <c r="F319">
+        <v>9.4</v>
+      </c>
+      <c r="G319">
+        <v>6.25</v>
+      </c>
+      <c r="H319">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C320">
+        <v>10.36</v>
+      </c>
+      <c r="D320">
+        <v>6.48</v>
+      </c>
+      <c r="E320">
+        <v>9.83</v>
+      </c>
+      <c r="F320">
+        <v>10.11</v>
+      </c>
+      <c r="G320">
+        <v>5.27</v>
+      </c>
+      <c r="H320">
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C321">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="D321">
+        <v>5.36</v>
+      </c>
+      <c r="E321">
+        <v>7.76</v>
+      </c>
+      <c r="F321">
+        <v>9.81</v>
+      </c>
+      <c r="G321">
+        <v>5.28</v>
+      </c>
+      <c r="H321">
+        <v>7.39</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C322">
+        <v>9.77</v>
+      </c>
+      <c r="D322">
+        <v>6.33</v>
+      </c>
+      <c r="E322">
+        <v>8.16</v>
+      </c>
+      <c r="F322">
+        <v>9.77</v>
+      </c>
+      <c r="G322">
+        <v>5.05</v>
+      </c>
+      <c r="H322">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C323">
+        <v>9.43</v>
+      </c>
+      <c r="D323">
+        <v>5.24</v>
+      </c>
+      <c r="E323">
+        <v>7.83</v>
+      </c>
+      <c r="F323">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="G323">
+        <v>5.97</v>
+      </c>
+      <c r="H323">
+        <v>13.46</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>50</v>
+      </c>
+      <c r="C324">
+        <v>10.93</v>
+      </c>
+      <c r="D324">
+        <v>7.4</v>
+      </c>
+      <c r="E324">
+        <v>11.09</v>
+      </c>
+      <c r="F324">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G324">
+        <v>6.02</v>
+      </c>
+      <c r="H324">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C325">
+        <v>10.19</v>
+      </c>
+      <c r="D325">
+        <v>7.05</v>
+      </c>
+      <c r="E325">
+        <v>13.03</v>
+      </c>
+      <c r="F325">
+        <v>9.32</v>
+      </c>
+      <c r="G325">
+        <v>5.17</v>
+      </c>
+      <c r="H325">
+        <v>14.43</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C326">
+        <v>11.05</v>
+      </c>
+      <c r="D326">
+        <v>7.67</v>
+      </c>
+      <c r="E326">
+        <v>9.9</v>
+      </c>
+      <c r="F326">
+        <v>9.02</v>
+      </c>
+      <c r="G326">
+        <v>5.25</v>
+      </c>
+      <c r="H326">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C327">
+        <v>10.34</v>
+      </c>
+      <c r="D327">
+        <v>6.75</v>
+      </c>
+      <c r="E327">
+        <v>12.52</v>
+      </c>
+      <c r="F327">
+        <v>10.46</v>
+      </c>
+      <c r="G327">
+        <v>6.76</v>
+      </c>
+      <c r="H327">
+        <v>14.41</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C328">
+        <v>10.28</v>
+      </c>
+      <c r="D328">
+        <v>5.6</v>
+      </c>
+      <c r="E328">
+        <v>12.16</v>
+      </c>
+      <c r="F328">
+        <v>11.81</v>
+      </c>
+      <c r="G328">
+        <v>6.25</v>
+      </c>
+      <c r="H328">
+        <v>11.64</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>51</v>
+      </c>
+      <c r="C329">
+        <v>10.61</v>
+      </c>
+      <c r="D329">
+        <v>7.5</v>
+      </c>
+      <c r="E329">
+        <v>11.07</v>
+      </c>
+      <c r="F329">
+        <v>10</v>
+      </c>
+      <c r="G329">
+        <v>7.12</v>
+      </c>
+      <c r="H329">
+        <v>11.91</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C330">
+        <v>10.41</v>
+      </c>
+      <c r="D330">
+        <v>7.16</v>
+      </c>
+      <c r="E330">
+        <v>12.43</v>
+      </c>
+      <c r="F330">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="G330">
+        <v>6.44</v>
+      </c>
+      <c r="H330">
+        <v>12.66</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C331">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="D331">
+        <v>7.21</v>
+      </c>
+      <c r="E331">
+        <v>10.57</v>
+      </c>
+      <c r="F331">
+        <v>10.35</v>
+      </c>
+      <c r="G331">
+        <v>6.93</v>
+      </c>
+      <c r="H331">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C332">
+        <v>9.84</v>
+      </c>
+      <c r="D332">
+        <v>6.87</v>
+      </c>
+      <c r="E332">
+        <v>11.27</v>
+      </c>
+      <c r="F332">
+        <v>9.86</v>
+      </c>
+      <c r="G332">
+        <v>5.69</v>
+      </c>
+      <c r="H332">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C333">
+        <v>10.75</v>
+      </c>
+      <c r="D333">
+        <v>7.59</v>
+      </c>
+      <c r="E333">
+        <v>8.89</v>
+      </c>
+      <c r="F333">
+        <v>11.13</v>
+      </c>
+      <c r="G333">
+        <v>6.34</v>
+      </c>
+      <c r="H333">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>52</v>
+      </c>
+      <c r="C334">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="D334">
+        <v>5.03</v>
+      </c>
+      <c r="E334">
+        <v>13.26</v>
+      </c>
+      <c r="F334">
+        <v>11.28</v>
+      </c>
+      <c r="G334">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="H334">
+        <v>13.57</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C335">
+        <v>10.49</v>
+      </c>
+      <c r="D335">
+        <v>6.71</v>
+      </c>
+      <c r="E335">
+        <v>10.73</v>
+      </c>
+      <c r="F335">
+        <v>9.92</v>
+      </c>
+      <c r="G335">
+        <v>6.23</v>
+      </c>
+      <c r="H335">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C336">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D336">
+        <v>5.47</v>
+      </c>
+      <c r="E336">
+        <v>10.35</v>
+      </c>
+      <c r="F336">
+        <v>9.93</v>
+      </c>
+      <c r="G336">
+        <v>6.87</v>
+      </c>
+      <c r="H336">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C337">
+        <v>10.32</v>
+      </c>
+      <c r="D337">
+        <v>6.6</v>
+      </c>
+      <c r="E337">
+        <v>11.04</v>
+      </c>
+      <c r="F337">
+        <v>10.11</v>
+      </c>
+      <c r="G337">
+        <v>6.99</v>
+      </c>
+      <c r="H337">
+        <v>13.57</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C338">
+        <v>9.23</v>
+      </c>
+      <c r="D338">
+        <v>5.42</v>
+      </c>
+      <c r="E338">
+        <v>13.26</v>
+      </c>
+      <c r="F338">
+        <v>10.17</v>
+      </c>
+      <c r="G338">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="H338">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>53</v>
+      </c>
+      <c r="C339">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="D339">
+        <v>6.47</v>
+      </c>
+      <c r="E339">
+        <v>11.49</v>
+      </c>
+      <c r="F339">
+        <v>9.44</v>
+      </c>
+      <c r="G339">
+        <v>6.23</v>
+      </c>
+      <c r="H339">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C340">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="D340">
+        <v>6.87</v>
+      </c>
+      <c r="E340">
+        <v>12.12</v>
+      </c>
+      <c r="F340">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="G340">
+        <v>5.08</v>
+      </c>
+      <c r="H340">
+        <v>13.88</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C341">
+        <v>8.75</v>
+      </c>
+      <c r="D341">
+        <v>6.67</v>
+      </c>
+      <c r="E341">
+        <v>12.22</v>
+      </c>
+      <c r="F341">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="G341">
+        <v>6.27</v>
+      </c>
+      <c r="H341">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C342">
+        <v>9.73</v>
+      </c>
+      <c r="D342">
+        <v>4.18</v>
+      </c>
+      <c r="E342">
+        <v>14.89</v>
+      </c>
+      <c r="F342">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G342">
+        <v>7.15</v>
+      </c>
+      <c r="H342">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C343">
+        <v>9.52</v>
+      </c>
+      <c r="D343">
+        <v>6.04</v>
+      </c>
+      <c r="E343">
+        <v>11.18</v>
+      </c>
+      <c r="F343">
+        <v>8.76</v>
+      </c>
+      <c r="G343">
+        <v>5.74</v>
+      </c>
+      <c r="H343">
+        <v>10.66</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C344">
+        <v>10.08</v>
+      </c>
+      <c r="D344">
+        <v>5.7</v>
+      </c>
+      <c r="E344">
+        <v>10.88</v>
+      </c>
+      <c r="F344">
+        <v>9.34</v>
+      </c>
+      <c r="G344">
+        <v>5.6</v>
+      </c>
+      <c r="H344">
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C345">
+        <v>9.44</v>
+      </c>
+      <c r="D345">
+        <v>3.86</v>
+      </c>
+      <c r="E345">
+        <v>13.73</v>
+      </c>
+      <c r="F345">
+        <v>8.51</v>
+      </c>
+      <c r="G345">
+        <v>6</v>
+      </c>
+      <c r="H345">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>54</v>
+      </c>
+      <c r="C346">
+        <v>9.81</v>
+      </c>
+      <c r="D346">
+        <v>6.1</v>
+      </c>
+      <c r="E346">
+        <v>13.67</v>
+      </c>
+      <c r="F346">
+        <v>9.27</v>
+      </c>
+      <c r="G346">
+        <v>5.74</v>
+      </c>
+      <c r="H346">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C347">
+        <v>6.49</v>
+      </c>
+      <c r="D347">
+        <v>4.71</v>
+      </c>
+      <c r="E347">
+        <v>14.58</v>
+      </c>
+      <c r="F347">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G347">
+        <v>4.13</v>
+      </c>
+      <c r="H347">
+        <v>11.53</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C348">
+        <v>9.56</v>
+      </c>
+      <c r="D348">
+        <v>5.64</v>
+      </c>
+      <c r="E348">
+        <v>11.18</v>
+      </c>
+      <c r="F348">
+        <v>9.09</v>
+      </c>
+      <c r="G348">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="H348">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C349">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="D349">
+        <v>5.98</v>
+      </c>
+      <c r="E349">
+        <v>12.55</v>
+      </c>
+      <c r="F349">
+        <v>9.1</v>
+      </c>
+      <c r="G349">
+        <v>5.22</v>
+      </c>
+      <c r="H349">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C350">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="D350">
+        <v>3.75</v>
+      </c>
+      <c r="E350">
+        <v>14.16</v>
+      </c>
+      <c r="F350">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="G350">
+        <v>5.35</v>
+      </c>
+      <c r="H350">
+        <v>13.49</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C351">
+        <v>8.01</v>
+      </c>
+      <c r="D351">
+        <v>6.41</v>
+      </c>
+      <c r="E351">
+        <v>12.61</v>
+      </c>
+      <c r="F351">
+        <v>9.67</v>
+      </c>
+      <c r="G351">
+        <v>5.82</v>
+      </c>
+      <c r="H351">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C352">
+        <v>9.48</v>
+      </c>
+      <c r="D352">
+        <v>5.85</v>
+      </c>
+      <c r="E352">
+        <v>13.85</v>
+      </c>
+      <c r="F352">
+        <v>11.24</v>
+      </c>
+      <c r="G352">
+        <v>6.06</v>
+      </c>
+      <c r="H352">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C353">
+        <v>8.41</v>
+      </c>
+      <c r="D353">
+        <v>5.48</v>
+      </c>
+      <c r="E353">
+        <v>13.76</v>
+      </c>
+      <c r="F353">
+        <v>9.15</v>
+      </c>
+      <c r="G353">
+        <v>5.74</v>
+      </c>
+      <c r="H353">
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C354">
+        <v>9.15</v>
+      </c>
+      <c r="D354">
+        <v>5.66</v>
+      </c>
+      <c r="E354">
+        <v>12.56</v>
+      </c>
+      <c r="F354">
+        <v>8.91</v>
+      </c>
+      <c r="G354">
+        <v>5.74</v>
+      </c>
+      <c r="H354">
+        <v>10.54</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C355">
+        <v>7.04</v>
+      </c>
+      <c r="D355">
+        <v>3.81</v>
+      </c>
+      <c r="E355">
+        <v>9.32</v>
+      </c>
+      <c r="F355">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G355">
+        <v>4.26</v>
+      </c>
+      <c r="H355">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>55</v>
+      </c>
+      <c r="C356">
+        <v>11.1</v>
+      </c>
+      <c r="D356">
+        <v>7.27</v>
+      </c>
+      <c r="E356">
+        <v>12.33</v>
+      </c>
+      <c r="F356">
+        <v>7.26</v>
+      </c>
+      <c r="G356">
+        <v>4.38</v>
+      </c>
+      <c r="H356">
+        <v>12.63</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C357">
+        <v>10.8</v>
+      </c>
+      <c r="D357">
+        <v>7.49</v>
+      </c>
+      <c r="E357">
+        <v>9.56</v>
+      </c>
+      <c r="F357">
+        <v>7.77</v>
+      </c>
+      <c r="G357">
+        <v>5.59</v>
+      </c>
+      <c r="H357">
+        <v>12.19</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C358">
+        <v>10.49</v>
+      </c>
+      <c r="D358">
+        <v>7.54</v>
+      </c>
+      <c r="E358">
+        <v>11.94</v>
+      </c>
+      <c r="F358">
+        <v>8.75</v>
+      </c>
+      <c r="G358">
+        <v>5.43</v>
+      </c>
+      <c r="H358">
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C359">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="D359">
+        <v>7.26</v>
+      </c>
+      <c r="E359">
+        <v>11.3</v>
+      </c>
+      <c r="F359">
+        <v>12.53</v>
+      </c>
+      <c r="G359">
+        <v>7.47</v>
+      </c>
+      <c r="H359">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>56</v>
+      </c>
+      <c r="C360">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="D360">
+        <v>5.71</v>
+      </c>
+      <c r="E360">
+        <v>12.4</v>
+      </c>
+      <c r="F360">
+        <v>10.54</v>
+      </c>
+      <c r="G360">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H360">
+        <v>12.57</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C361">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="D361">
+        <v>4.7</v>
+      </c>
+      <c r="E361">
+        <v>12.84</v>
+      </c>
+      <c r="F361">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G361">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="H361">
+        <v>14.84</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C362">
+        <v>10.29</v>
+      </c>
+      <c r="D362">
+        <v>4.83</v>
+      </c>
+      <c r="E362">
+        <v>13.7</v>
+      </c>
+      <c r="F362">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G362">
+        <v>4.07</v>
+      </c>
+      <c r="H362">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C363">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="D363">
+        <v>6.02</v>
+      </c>
+      <c r="E363">
+        <v>10.58</v>
+      </c>
+      <c r="F363">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="G363">
+        <v>5.61</v>
+      </c>
+      <c r="H363">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C364">
+        <v>10.55</v>
+      </c>
+      <c r="D364">
+        <v>6.45</v>
+      </c>
+      <c r="E364">
+        <v>14.7</v>
+      </c>
+      <c r="F364">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="G364">
+        <v>5.41</v>
+      </c>
+      <c r="H364">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>57</v>
+      </c>
+      <c r="C365">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="D365">
+        <v>5.23</v>
+      </c>
+      <c r="E365">
+        <v>13.9</v>
+      </c>
+      <c r="F365">
+        <v>8.25</v>
+      </c>
+      <c r="G365">
+        <v>4.83</v>
+      </c>
+      <c r="H365">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C366">
+        <v>9.4</v>
+      </c>
+      <c r="D366">
+        <v>4.49</v>
+      </c>
+      <c r="E366">
+        <v>12.4</v>
+      </c>
+      <c r="F366">
+        <v>7.89</v>
+      </c>
+      <c r="G366">
+        <v>4.7</v>
+      </c>
+      <c r="H366">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C367">
+        <v>9.44</v>
+      </c>
+      <c r="D367">
+        <v>4.71</v>
+      </c>
+      <c r="E367">
+        <v>12.13</v>
+      </c>
+      <c r="F367">
+        <v>6.65</v>
+      </c>
+      <c r="G367">
+        <v>4.58</v>
+      </c>
+      <c r="H367">
+        <v>10.52</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C368">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="D368">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="E368">
+        <v>11.46</v>
+      </c>
+      <c r="F368">
+        <v>7.18</v>
+      </c>
+      <c r="G368">
+        <v>3.56</v>
+      </c>
+      <c r="H368">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C369">
+        <v>8.39</v>
+      </c>
+      <c r="D369">
+        <v>4.47</v>
+      </c>
+      <c r="E369">
+        <v>10.29</v>
+      </c>
+      <c r="F369">
+        <v>7.51</v>
+      </c>
+      <c r="G369">
+        <v>4.32</v>
+      </c>
+      <c r="H369">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>58</v>
+      </c>
+      <c r="C370">
+        <v>10</v>
+      </c>
+      <c r="D370">
+        <v>5.7</v>
+      </c>
+      <c r="E370">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="F370">
+        <v>8.84</v>
+      </c>
+      <c r="G370">
+        <v>4.59</v>
+      </c>
+      <c r="H370">
+        <v>15.93</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C371">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="D371">
+        <v>5.58</v>
+      </c>
+      <c r="E371">
+        <v>13.23</v>
+      </c>
+      <c r="F371">
+        <v>8.64</v>
+      </c>
+      <c r="G371">
+        <v>3.56</v>
+      </c>
+      <c r="H371">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C372">
+        <v>10.19</v>
+      </c>
+      <c r="D372">
+        <v>5.22</v>
+      </c>
+      <c r="E372">
+        <v>13.4</v>
+      </c>
+      <c r="F372">
+        <v>8.89</v>
+      </c>
+      <c r="G372">
+        <v>3.97</v>
+      </c>
+      <c r="H372">
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C373">
+        <v>9.66</v>
+      </c>
+      <c r="D373">
+        <v>5.6</v>
+      </c>
+      <c r="E373">
+        <v>11.05</v>
+      </c>
+      <c r="F373">
+        <v>8.86</v>
+      </c>
+      <c r="G373">
+        <v>4.78</v>
+      </c>
+      <c r="H373">
+        <v>8.8699999999999992</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C374">
+        <v>9.16</v>
+      </c>
+      <c r="D374">
+        <v>6.25</v>
+      </c>
+      <c r="E374">
+        <v>13.42</v>
+      </c>
+      <c r="F374">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="G374">
+        <v>6.22</v>
+      </c>
+      <c r="H374">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C375">
+        <v>10.55</v>
+      </c>
+      <c r="D375">
+        <v>5.98</v>
+      </c>
+      <c r="E375">
+        <v>13.29</v>
+      </c>
+      <c r="F375">
+        <v>9.66</v>
+      </c>
+      <c r="G375">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H375">
+        <v>13.83</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C376">
+        <v>8.76</v>
+      </c>
+      <c r="D376">
+        <v>4.83</v>
+      </c>
+      <c r="E376">
+        <v>10.76</v>
+      </c>
+      <c r="F376">
+        <v>9.02</v>
+      </c>
+      <c r="G376">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H376">
+        <v>11.72</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C377">
+        <v>7.95</v>
+      </c>
+      <c r="D377">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="E377">
+        <v>10.84</v>
+      </c>
+      <c r="F377">
+        <v>9.93</v>
+      </c>
+      <c r="G377">
+        <v>5.14</v>
+      </c>
+      <c r="H377">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C378">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="D378">
+        <v>5.23</v>
+      </c>
+      <c r="E378">
+        <v>8.23</v>
+      </c>
+      <c r="F378">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="G378">
+        <v>5.3</v>
+      </c>
+      <c r="H378">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>59</v>
+      </c>
+      <c r="C379">
+        <v>10.88</v>
+      </c>
+      <c r="D379">
+        <v>5.91</v>
+      </c>
+      <c r="E379">
+        <v>10.95</v>
+      </c>
+      <c r="F379">
+        <v>8.27</v>
+      </c>
+      <c r="G379">
+        <v>4.84</v>
+      </c>
+      <c r="H379">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C380">
+        <v>9.92</v>
+      </c>
+      <c r="D380">
+        <v>6.89</v>
+      </c>
+      <c r="E380">
+        <v>11.43</v>
+      </c>
+      <c r="F380">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="G380">
+        <v>5.39</v>
+      </c>
+      <c r="H380">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C381">
+        <v>8.76</v>
+      </c>
+      <c r="D381">
+        <v>5.73</v>
+      </c>
+      <c r="E381">
+        <v>12.07</v>
+      </c>
+      <c r="F381">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="G381">
+        <v>4.45</v>
+      </c>
+      <c r="H381">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C382">
+        <v>9.16</v>
+      </c>
+      <c r="D382">
+        <v>4.83</v>
+      </c>
+      <c r="E382">
+        <v>12</v>
+      </c>
+      <c r="F382">
+        <v>9.34</v>
+      </c>
+      <c r="G382">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H382">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C383">
+        <v>7.97</v>
+      </c>
+      <c r="D383">
+        <v>4.95</v>
+      </c>
+      <c r="E383">
+        <v>9.89</v>
+      </c>
+      <c r="F383">
+        <v>8.94</v>
+      </c>
+      <c r="G383">
+        <v>5.58</v>
+      </c>
+      <c r="H383">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C384">
+        <v>9.36</v>
+      </c>
+      <c r="D384">
+        <v>6.1</v>
+      </c>
+      <c r="E384">
+        <v>9.1</v>
+      </c>
+      <c r="F384">
+        <v>8.27</v>
+      </c>
+      <c r="G384">
+        <v>4.32</v>
+      </c>
+      <c r="H384">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C385">
+        <v>8.67</v>
+      </c>
+      <c r="D385">
+        <v>5.37</v>
+      </c>
+      <c r="E385">
+        <v>9.18</v>
+      </c>
+      <c r="F385">
+        <v>7.55</v>
+      </c>
+      <c r="G385">
+        <v>3.68</v>
+      </c>
+      <c r="H385">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C386">
+        <v>8.9</v>
+      </c>
+      <c r="D386">
+        <v>4.87</v>
+      </c>
+      <c r="E386">
+        <v>12.35</v>
+      </c>
+      <c r="F386">
+        <v>8.75</v>
+      </c>
+      <c r="G386">
+        <v>3.76</v>
+      </c>
+      <c r="H386">
+        <v>8.64</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>60</v>
+      </c>
+      <c r="C387">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="D387">
+        <v>6.86</v>
+      </c>
+      <c r="E387">
+        <v>12.87</v>
+      </c>
+      <c r="F387">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="G387">
+        <v>6.02</v>
+      </c>
+      <c r="H387">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C388">
+        <v>9.74</v>
+      </c>
+      <c r="D388">
+        <v>7.54</v>
+      </c>
+      <c r="E388">
+        <v>11.2</v>
+      </c>
+      <c r="F388">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="G388">
+        <v>6.45</v>
+      </c>
+      <c r="H388">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C389">
+        <v>9.58</v>
+      </c>
+      <c r="D389">
+        <v>7.37</v>
+      </c>
+      <c r="E389">
+        <v>8.32</v>
+      </c>
+      <c r="F389">
+        <v>8.89</v>
+      </c>
+      <c r="G389">
+        <v>6.61</v>
+      </c>
+      <c r="H389">
+        <v>13.39</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C390">
+        <v>7.91</v>
+      </c>
+      <c r="D390">
+        <v>6.61</v>
+      </c>
+      <c r="E390">
+        <v>7.48</v>
+      </c>
+      <c r="F390">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="G390">
+        <v>5.71</v>
+      </c>
+      <c r="H390">
+        <v>10.79</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C391">
+        <v>9.65</v>
+      </c>
+      <c r="D391">
+        <v>6.5</v>
+      </c>
+      <c r="E391">
+        <v>13.86</v>
+      </c>
+      <c r="F391">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="G391">
+        <v>5.62</v>
+      </c>
+      <c r="H391">
+        <v>14.65</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>61</v>
+      </c>
+      <c r="C392">
+        <v>10.67</v>
+      </c>
+      <c r="D392">
+        <v>5.99</v>
+      </c>
+      <c r="E392">
+        <v>12.6</v>
+      </c>
+      <c r="F392">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="G392">
+        <v>5.91</v>
+      </c>
+      <c r="H392">
+        <v>17.89</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C393">
+        <v>7.8</v>
+      </c>
+      <c r="D393">
+        <v>5.35</v>
+      </c>
+      <c r="E393">
+        <v>11.46</v>
+      </c>
+      <c r="F393">
+        <v>9.81</v>
+      </c>
+      <c r="G393">
+        <v>5.47</v>
+      </c>
+      <c r="H393">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C394">
+        <v>7.24</v>
+      </c>
+      <c r="D394">
+        <v>4.83</v>
+      </c>
+      <c r="E394">
+        <v>10.59</v>
+      </c>
+      <c r="F394">
+        <v>9.6</v>
+      </c>
+      <c r="G394">
+        <v>6.23</v>
+      </c>
+      <c r="H394">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C395">
+        <v>9.83</v>
+      </c>
+      <c r="D395">
+        <v>5.86</v>
+      </c>
+      <c r="E395">
+        <v>13.49</v>
+      </c>
+      <c r="F395">
+        <v>10.16</v>
+      </c>
+      <c r="G395">
+        <v>5.22</v>
+      </c>
+      <c r="H395">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C396">
+        <v>7.49</v>
+      </c>
+      <c r="D396">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E396">
+        <v>11.36</v>
+      </c>
+      <c r="F396">
+        <v>9.66</v>
+      </c>
+      <c r="G396">
+        <v>6.22</v>
+      </c>
+      <c r="H396">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C397">
+        <v>9.1</v>
+      </c>
+      <c r="D397">
+        <v>5.85</v>
+      </c>
+      <c r="E397">
+        <v>15.4</v>
+      </c>
+      <c r="F397">
+        <v>9.43</v>
+      </c>
+      <c r="G397">
+        <v>4.97</v>
+      </c>
+      <c r="H397">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C398">
+        <v>9.84</v>
+      </c>
+      <c r="D398">
+        <v>5.03</v>
+      </c>
+      <c r="E398">
+        <v>12.07</v>
+      </c>
+      <c r="F398">
+        <v>8.82</v>
+      </c>
+      <c r="G398">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="H398">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C399">
+        <v>8.41</v>
+      </c>
+      <c r="D399">
+        <v>6.52</v>
+      </c>
+      <c r="E399">
+        <v>14.62</v>
+      </c>
+      <c r="F399">
+        <v>8.56</v>
+      </c>
+      <c r="G399">
+        <v>4.71</v>
+      </c>
+      <c r="H399">
+        <v>15.73</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C400">
+        <v>8.51</v>
+      </c>
+      <c r="D400">
+        <v>5.24</v>
+      </c>
+      <c r="E400">
+        <v>13.9</v>
+      </c>
+      <c r="F400">
+        <v>9.16</v>
+      </c>
+      <c r="G400">
+        <v>4.95</v>
+      </c>
+      <c r="H400">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C401">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="D401">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E401">
+        <v>13.05</v>
+      </c>
+      <c r="F401">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="G401">
+        <v>4.83</v>
+      </c>
+      <c r="H401">
+        <v>13.34</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C402">
+        <v>10.59</v>
+      </c>
+      <c r="D402">
+        <v>6.01</v>
+      </c>
+      <c r="E402">
+        <v>14.13</v>
+      </c>
+      <c r="F402">
+        <v>9.4</v>
+      </c>
+      <c r="G402">
+        <v>5.58</v>
+      </c>
+      <c r="H402">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>62</v>
+      </c>
+      <c r="C403">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="D403">
+        <v>4.21</v>
+      </c>
+      <c r="E403">
+        <v>8.4</v>
+      </c>
+      <c r="F403">
+        <v>9.42</v>
+      </c>
+      <c r="G403">
+        <v>4.96</v>
+      </c>
+      <c r="H403">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C404">
+        <v>9.66</v>
+      </c>
+      <c r="D404">
+        <v>3.98</v>
+      </c>
+      <c r="E404">
+        <v>8.65</v>
+      </c>
+      <c r="F404">
+        <v>9.65</v>
+      </c>
+      <c r="G404">
+        <v>4.47</v>
+      </c>
+      <c r="H404">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C405">
+        <v>8.93</v>
+      </c>
+      <c r="D405">
+        <v>3.51</v>
+      </c>
+      <c r="E405">
+        <v>8.75</v>
+      </c>
+      <c r="F405">
+        <v>10.38</v>
+      </c>
+      <c r="G405">
+        <v>4.07</v>
+      </c>
+      <c r="H405">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C406">
+        <v>8.89</v>
+      </c>
+      <c r="D406">
+        <v>5.53</v>
+      </c>
+      <c r="E406">
+        <v>10.07</v>
+      </c>
+      <c r="F406">
+        <v>7.52</v>
+      </c>
+      <c r="G406">
+        <v>4.34</v>
+      </c>
+      <c r="H406">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C407">
+        <v>10.29</v>
+      </c>
+      <c r="D407">
+        <v>4.95</v>
+      </c>
+      <c r="E407">
+        <v>11.55</v>
+      </c>
+      <c r="F407">
+        <v>9.48</v>
+      </c>
+      <c r="G407">
+        <v>4.83</v>
+      </c>
+      <c r="H407">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>63</v>
+      </c>
+      <c r="C408">
+        <v>9.18</v>
+      </c>
+      <c r="D408">
+        <v>5.76</v>
+      </c>
+      <c r="E408">
+        <v>10.23</v>
+      </c>
+      <c r="F408">
+        <v>8.1</v>
+      </c>
+      <c r="G408">
+        <v>6.3</v>
+      </c>
+      <c r="H408">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C409">
+        <v>9.52</v>
+      </c>
+      <c r="D409">
+        <v>5.98</v>
+      </c>
+      <c r="E409">
+        <v>9.74</v>
+      </c>
+      <c r="F409">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="G409">
+        <v>5.8</v>
+      </c>
+      <c r="H409">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C410">
+        <v>10.6</v>
+      </c>
+      <c r="D410">
+        <v>6.74</v>
+      </c>
+      <c r="E410">
+        <v>9.99</v>
+      </c>
+      <c r="F410">
+        <v>8.56</v>
+      </c>
+      <c r="G410">
+        <v>5.36</v>
+      </c>
+      <c r="H410">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C411">
+        <v>8.69</v>
+      </c>
+      <c r="D411">
+        <v>5.86</v>
+      </c>
+      <c r="E411">
+        <v>10.75</v>
+      </c>
+      <c r="F411">
+        <v>8.83</v>
+      </c>
+      <c r="G411">
+        <v>6.06</v>
+      </c>
+      <c r="H411">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>64</v>
+      </c>
+      <c r="C412">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D412">
+        <v>5.61</v>
+      </c>
+      <c r="E412">
+        <v>15.21</v>
+      </c>
+      <c r="F412">
+        <v>7.8</v>
+      </c>
+      <c r="G412">
+        <v>5.75</v>
+      </c>
+      <c r="H412">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C413">
+        <v>8.82</v>
+      </c>
+      <c r="D413">
+        <v>4.58</v>
+      </c>
+      <c r="E413">
+        <v>13.86</v>
+      </c>
+      <c r="F413">
+        <v>7.79</v>
+      </c>
+      <c r="G413">
+        <v>5.36</v>
+      </c>
+      <c r="H413">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C414">
+        <v>9.67</v>
+      </c>
+      <c r="D414">
+        <v>4.95</v>
+      </c>
+      <c r="E414">
+        <v>12.78</v>
+      </c>
+      <c r="F414">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="G414">
+        <v>5.33</v>
+      </c>
+      <c r="H414">
+        <v>14.78</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C415">
+        <v>9.56</v>
+      </c>
+      <c r="D415">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E415">
+        <v>13.92</v>
+      </c>
+      <c r="F415">
+        <v>9.52</v>
+      </c>
+      <c r="G415">
+        <v>5.09</v>
+      </c>
+      <c r="H415">
+        <v>16.59</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>65</v>
+      </c>
+      <c r="C416">
+        <v>10.67</v>
+      </c>
+      <c r="D416">
+        <v>6.98</v>
+      </c>
+      <c r="E416">
+        <v>11.51</v>
+      </c>
+      <c r="F416">
+        <v>12.25</v>
+      </c>
+      <c r="G416">
+        <v>6.71</v>
+      </c>
+      <c r="H416">
+        <v>14.81</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C417">
+        <v>10.17</v>
+      </c>
+      <c r="D417">
+        <v>4.83</v>
+      </c>
+      <c r="E417">
+        <v>11.27</v>
+      </c>
+      <c r="F417">
+        <v>12.17</v>
+      </c>
+      <c r="G417">
+        <v>6.47</v>
+      </c>
+      <c r="H417">
+        <v>10.039999999999999</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C418">
+        <v>9.89</v>
+      </c>
+      <c r="D418">
+        <v>5.86</v>
+      </c>
+      <c r="E418">
+        <v>11.53</v>
+      </c>
+      <c r="F418">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="G418">
+        <v>5.01</v>
+      </c>
+      <c r="H418">
+        <v>11.37</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C419">
+        <v>9.39</v>
+      </c>
+      <c r="D419">
+        <v>5.33</v>
+      </c>
+      <c r="E419">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="F419">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="G419">
+        <v>6.63</v>
+      </c>
+      <c r="H419">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C420">
+        <v>10.06</v>
+      </c>
+      <c r="D420">
+        <v>5.84</v>
+      </c>
+      <c r="E420">
+        <v>10.95</v>
+      </c>
+      <c r="F420">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="G420">
+        <v>5.47</v>
+      </c>
+      <c r="H420">
+        <v>11.91</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C421">
+        <v>8.77</v>
+      </c>
+      <c r="D421">
+        <v>6.48</v>
+      </c>
+      <c r="E421">
+        <v>9.66</v>
+      </c>
+      <c r="F421">
+        <v>10.19</v>
+      </c>
+      <c r="G421">
+        <v>5.71</v>
+      </c>
+      <c r="H421">
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C422">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="D422">
+        <v>6.23</v>
+      </c>
+      <c r="E422">
+        <v>12.89</v>
+      </c>
+      <c r="F422">
+        <v>10.11</v>
+      </c>
+      <c r="G422">
+        <v>7.26</v>
+      </c>
+      <c r="H422">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>66</v>
+      </c>
+      <c r="C423">
+        <v>12.21</v>
+      </c>
+      <c r="D423">
+        <v>7.33</v>
+      </c>
+      <c r="E423">
+        <v>12.22</v>
+      </c>
+      <c r="F423">
+        <v>10.5</v>
+      </c>
+      <c r="G423">
+        <v>5.87</v>
+      </c>
+      <c r="H423">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C424">
+        <v>9.66</v>
+      </c>
+      <c r="D424">
+        <v>5.78</v>
+      </c>
+      <c r="E424">
+        <v>11.63</v>
+      </c>
+      <c r="F424">
+        <v>10.78</v>
+      </c>
+      <c r="G424">
+        <v>6.54</v>
+      </c>
+      <c r="H424">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C425">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="D425">
+        <v>7.54</v>
+      </c>
+      <c r="E425">
+        <v>10.07</v>
+      </c>
+      <c r="F425">
+        <v>10.29</v>
+      </c>
+      <c r="G425">
+        <v>6.35</v>
+      </c>
+      <c r="H425">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C426">
+        <v>10.81</v>
+      </c>
+      <c r="D426">
+        <v>6.8</v>
+      </c>
+      <c r="E426">
+        <v>11.4</v>
+      </c>
+      <c r="F426">
+        <v>9.16</v>
+      </c>
+      <c r="G426">
+        <v>5.72</v>
+      </c>
+      <c r="H426">
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C427">
+        <v>10.39</v>
+      </c>
+      <c r="D427">
+        <v>5.36</v>
+      </c>
+      <c r="E427">
+        <v>9.4</v>
+      </c>
+      <c r="F427">
+        <v>10.73</v>
+      </c>
+      <c r="G427">
+        <v>5.83</v>
+      </c>
+      <c r="H427">
+        <v>13.11</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>67</v>
+      </c>
+      <c r="C428">
+        <v>14.19</v>
+      </c>
+      <c r="D428">
+        <v>7.95</v>
+      </c>
+      <c r="E428">
+        <v>17.91</v>
+      </c>
+      <c r="F428">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="G428">
+        <v>8.02</v>
+      </c>
+      <c r="H428">
+        <v>13.34</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C429">
+        <v>11.07</v>
+      </c>
+      <c r="D429">
+        <v>5.87</v>
+      </c>
+      <c r="E429">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="F429">
+        <v>10.35</v>
+      </c>
+      <c r="G429">
+        <v>6.25</v>
+      </c>
+      <c r="H429">
+        <v>14.65</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C430">
+        <v>10.61</v>
+      </c>
+      <c r="D430">
+        <v>6.66</v>
+      </c>
+      <c r="E430">
+        <v>17.43</v>
+      </c>
+      <c r="F430">
+        <v>10.99</v>
+      </c>
+      <c r="G430">
+        <v>5.76</v>
+      </c>
+      <c r="H430">
+        <v>15.68</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C431">
+        <v>10.02</v>
+      </c>
+      <c r="D431">
+        <v>5.91</v>
+      </c>
+      <c r="E431">
+        <v>15.75</v>
+      </c>
+      <c r="F431">
+        <v>10.81</v>
+      </c>
+      <c r="G431">
+        <v>5.08</v>
+      </c>
+      <c r="H431">
+        <v>15.54</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C432">
+        <v>10.68</v>
+      </c>
+      <c r="D432">
+        <v>6.54</v>
+      </c>
+      <c r="E432">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="F432">
+        <v>11.3</v>
+      </c>
+      <c r="G432">
+        <v>5.05</v>
+      </c>
+      <c r="H432">
+        <v>14.81</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C433">
+        <v>10.83</v>
+      </c>
+      <c r="D433">
+        <v>5.45</v>
+      </c>
+      <c r="E433">
+        <v>17.16</v>
+      </c>
+      <c r="F433">
+        <v>11.32</v>
+      </c>
+      <c r="G433">
+        <v>4.96</v>
+      </c>
+      <c r="H433">
+        <v>17.27</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C434">
+        <v>10.87</v>
+      </c>
+      <c r="D434">
+        <v>5.62</v>
+      </c>
+      <c r="E434">
+        <v>17.18</v>
+      </c>
+      <c r="F434">
+        <v>11.18</v>
+      </c>
+      <c r="G434">
+        <v>6.99</v>
+      </c>
+      <c r="H434">
+        <v>13.27</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C435">
+        <v>11.81</v>
+      </c>
+      <c r="D435">
+        <v>6.48</v>
+      </c>
+      <c r="E435">
+        <v>13.92</v>
+      </c>
+      <c r="F435">
+        <v>10.4</v>
+      </c>
+      <c r="G435">
+        <v>5.69</v>
+      </c>
+      <c r="H435">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C436">
+        <v>9.31</v>
+      </c>
+      <c r="D436">
+        <v>5.72</v>
+      </c>
+      <c r="E436">
+        <v>14.9</v>
+      </c>
+      <c r="F436">
+        <v>9.64</v>
+      </c>
+      <c r="G436">
+        <v>5.7</v>
+      </c>
+      <c r="H436">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C437">
+        <v>9.69</v>
+      </c>
+      <c r="D437">
+        <v>5.08</v>
+      </c>
+      <c r="E437">
+        <v>13.13</v>
+      </c>
+      <c r="F437">
+        <v>10.16</v>
+      </c>
+      <c r="G437">
+        <v>6.44</v>
+      </c>
+      <c r="H437">
+        <v>13.37</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C438">
+        <v>8.89</v>
+      </c>
+      <c r="D438">
+        <v>5.94</v>
+      </c>
+      <c r="E438">
+        <v>13.78</v>
+      </c>
+      <c r="F438">
+        <v>11.16</v>
+      </c>
+      <c r="G438">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="H438">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>68</v>
+      </c>
+      <c r="C439">
+        <v>10.45</v>
+      </c>
+      <c r="D439">
+        <v>6.48</v>
+      </c>
+      <c r="E439">
+        <v>11.46</v>
+      </c>
+      <c r="F439">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="G439">
+        <v>7.08</v>
+      </c>
+      <c r="H439">
+        <v>13.01</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C440">
+        <v>10.11</v>
+      </c>
+      <c r="D440">
+        <v>6.38</v>
+      </c>
+      <c r="E440">
+        <v>11.65</v>
+      </c>
+      <c r="F440">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="G440">
+        <v>5.58</v>
+      </c>
+      <c r="H440">
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C441">
+        <v>11.44</v>
+      </c>
+      <c r="D441">
+        <v>7.75</v>
+      </c>
+      <c r="E441">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="F441">
+        <v>10.51</v>
+      </c>
+      <c r="G441">
+        <v>6.42</v>
+      </c>
+      <c r="H441">
+        <v>10.17</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C442">
+        <v>10.94</v>
+      </c>
+      <c r="D442">
+        <v>6.99</v>
+      </c>
+      <c r="E442">
+        <v>11.09</v>
+      </c>
+      <c r="F442">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="G442">
+        <v>6.14</v>
+      </c>
+      <c r="H442">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C443">
+        <v>11.16</v>
+      </c>
+      <c r="D443">
+        <v>7.44</v>
+      </c>
+      <c r="E443">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="F443">
+        <v>10.34</v>
+      </c>
+      <c r="G443">
+        <v>6.15</v>
+      </c>
+      <c r="H443">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C444">
+        <v>11.79</v>
+      </c>
+      <c r="D444">
+        <v>6.83</v>
+      </c>
+      <c r="E444">
+        <v>11.73</v>
+      </c>
+      <c r="F444">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G444">
+        <v>6.26</v>
+      </c>
+      <c r="H444">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>69</v>
+      </c>
+      <c r="C445">
+        <v>8.73</v>
+      </c>
+      <c r="D445">
+        <v>5.51</v>
+      </c>
+      <c r="E445">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="F445">
+        <v>10.59</v>
+      </c>
+      <c r="G445">
+        <v>6.09</v>
+      </c>
+      <c r="H445">
+        <v>13.01</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C446">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="D446">
+        <v>5.08</v>
+      </c>
+      <c r="E446">
+        <v>10.62</v>
+      </c>
+      <c r="F446">
+        <v>9.09</v>
+      </c>
+      <c r="G446">
+        <v>5.55</v>
+      </c>
+      <c r="H446">
+        <v>9.64</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C447">
+        <v>8.77</v>
+      </c>
+      <c r="D447">
+        <v>5.3</v>
+      </c>
+      <c r="E447">
+        <v>9.67</v>
+      </c>
+      <c r="F447">
+        <v>9.27</v>
+      </c>
+      <c r="G447">
+        <v>3.86</v>
+      </c>
+      <c r="H447">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C448">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="D448">
+        <v>6.01</v>
+      </c>
+      <c r="E448">
+        <v>12.85</v>
+      </c>
+      <c r="F448">
+        <v>9.27</v>
+      </c>
+      <c r="G448">
+        <v>3.97</v>
+      </c>
+      <c r="H448">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C449">
+        <v>9.58</v>
+      </c>
+      <c r="D449">
+        <v>6.14</v>
+      </c>
+      <c r="E449">
+        <v>14.35</v>
+      </c>
+      <c r="F449">
+        <v>9.58</v>
+      </c>
+      <c r="G449">
+        <v>4.34</v>
+      </c>
+      <c r="H449">
+        <v>12.63</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>70</v>
+      </c>
+      <c r="C450">
+        <v>11.3</v>
+      </c>
+      <c r="D450">
+        <v>5.97</v>
+      </c>
+      <c r="E450">
+        <v>11.49</v>
+      </c>
+      <c r="F450">
+        <v>9.36</v>
+      </c>
+      <c r="G450">
+        <v>6.26</v>
+      </c>
+      <c r="H450">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C451">
+        <v>11.81</v>
+      </c>
+      <c r="D451">
+        <v>6.22</v>
+      </c>
+      <c r="E451">
+        <v>10.98</v>
+      </c>
+      <c r="F451">
+        <v>8.41</v>
+      </c>
+      <c r="G451">
+        <v>3.06</v>
+      </c>
+      <c r="H451">
+        <v>11.68</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C452">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="D452">
+        <v>5.55</v>
+      </c>
+      <c r="E452">
+        <v>12.7</v>
+      </c>
+      <c r="F452">
+        <v>9.64</v>
+      </c>
+      <c r="G452">
+        <v>4.09</v>
+      </c>
+      <c r="H452">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C453">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="D453">
+        <v>6.16</v>
+      </c>
+      <c r="E453">
+        <v>14.09</v>
+      </c>
+      <c r="F453">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="G453">
+        <v>6.53</v>
+      </c>
+      <c r="H453">
+        <v>11.53</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>71</v>
+      </c>
+      <c r="C454">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="D454">
+        <v>5.8</v>
+      </c>
+      <c r="E454">
+        <v>11.83</v>
+      </c>
+      <c r="F454">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="G454">
+        <v>6.55</v>
+      </c>
+      <c r="H454">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C455">
+        <v>10.29</v>
+      </c>
+      <c r="D455">
+        <v>6.44</v>
+      </c>
+      <c r="E455">
+        <v>10</v>
+      </c>
+      <c r="F455">
+        <v>9.89</v>
+      </c>
+      <c r="G455">
+        <v>5.5</v>
+      </c>
+      <c r="H455">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C456">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="D456">
+        <v>5.54</v>
+      </c>
+      <c r="E456">
+        <v>10.49</v>
+      </c>
+      <c r="F456">
+        <v>10.52</v>
+      </c>
+      <c r="G456">
+        <v>5.76</v>
+      </c>
+      <c r="H456">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C457">
+        <v>10.19</v>
+      </c>
+      <c r="D457">
+        <v>6.2</v>
+      </c>
+      <c r="E457">
+        <v>11.32</v>
+      </c>
+      <c r="F457">
+        <v>9.44</v>
+      </c>
+      <c r="G457">
+        <v>6.3</v>
+      </c>
+      <c r="H457">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C458">
+        <v>9.33</v>
+      </c>
+      <c r="D458">
+        <v>6.47</v>
+      </c>
+      <c r="E458">
+        <v>11.3</v>
+      </c>
+      <c r="F458">
+        <v>10.73</v>
+      </c>
+      <c r="G458">
+        <v>6.23</v>
+      </c>
+      <c r="H458">
+        <v>11.37</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C459">
+        <v>9.82</v>
+      </c>
+      <c r="D459">
+        <v>4.38</v>
+      </c>
+      <c r="E459">
+        <v>11.37</v>
+      </c>
+      <c r="F459">
+        <v>10.11</v>
+      </c>
+      <c r="G459">
+        <v>5.64</v>
+      </c>
+      <c r="H459">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>72</v>
+      </c>
+      <c r="C460">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="D460">
+        <v>5.47</v>
+      </c>
+      <c r="E460">
+        <v>13.73</v>
+      </c>
+      <c r="F460">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="G460">
+        <v>5.99</v>
+      </c>
+      <c r="H460">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C461">
+        <v>10.1</v>
+      </c>
+      <c r="D461">
+        <v>4.78</v>
+      </c>
+      <c r="E461">
+        <v>10.67</v>
+      </c>
+      <c r="F461">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G461">
+        <v>7.1</v>
+      </c>
+      <c r="H461">
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C462">
+        <v>9.27</v>
+      </c>
+      <c r="D462">
+        <v>4.71</v>
+      </c>
+      <c r="E462">
+        <v>15.43</v>
+      </c>
+      <c r="F462">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="G462">
+        <v>7.02</v>
+      </c>
+      <c r="H462">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C463">
+        <v>9.18</v>
+      </c>
+      <c r="D463">
+        <v>5.22</v>
+      </c>
+      <c r="E463">
+        <v>11.36</v>
+      </c>
+      <c r="F463">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="G463">
+        <v>5.59</v>
+      </c>
+      <c r="H463">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C464">
+        <v>10.16</v>
+      </c>
+      <c r="D464">
+        <v>4.76</v>
+      </c>
+      <c r="E464">
+        <v>13.13</v>
+      </c>
+      <c r="F464">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="G464">
+        <v>6.13</v>
+      </c>
+      <c r="H464">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>73</v>
+      </c>
+      <c r="C465">
+        <v>10.57</v>
+      </c>
+      <c r="D465">
+        <v>6.53</v>
+      </c>
+      <c r="E465">
+        <v>11.88</v>
+      </c>
+      <c r="F465">
+        <v>9.06</v>
+      </c>
+      <c r="G465">
+        <v>4.96</v>
+      </c>
+      <c r="H465">
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C466">
+        <v>10.61</v>
+      </c>
+      <c r="D466">
+        <v>7.29</v>
+      </c>
+      <c r="E466">
+        <v>13.62</v>
+      </c>
+      <c r="F466">
+        <v>8.51</v>
+      </c>
+      <c r="G466">
+        <v>5.5</v>
+      </c>
+      <c r="H466">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C467">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="D467">
+        <v>5.92</v>
+      </c>
+      <c r="E467">
+        <v>12.75</v>
+      </c>
+      <c r="F467">
+        <v>7.63</v>
+      </c>
+      <c r="G467">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="H467">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C468">
+        <v>9.64</v>
+      </c>
+      <c r="D468">
+        <v>6.7</v>
+      </c>
+      <c r="E468">
+        <v>15.09</v>
+      </c>
+      <c r="F468">
+        <v>9.86</v>
+      </c>
+      <c r="G468">
+        <v>5.01</v>
+      </c>
+      <c r="H468">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C469">
+        <v>9.91</v>
+      </c>
+      <c r="D469">
+        <v>6.38</v>
+      </c>
+      <c r="E469">
+        <v>14.17</v>
+      </c>
+      <c r="F469">
+        <v>8.81</v>
+      </c>
+      <c r="G469">
+        <v>6.59</v>
+      </c>
+      <c r="H469">
+        <v>11.41</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>74</v>
+      </c>
+      <c r="C470">
+        <v>9.5</v>
+      </c>
+      <c r="D470">
+        <v>6.2</v>
+      </c>
+      <c r="E470">
+        <v>12.73</v>
+      </c>
+      <c r="F470">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="G470">
+        <v>6.19</v>
+      </c>
+      <c r="H470">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C471">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="D471">
+        <v>5.84</v>
+      </c>
+      <c r="E471">
+        <v>11.94</v>
+      </c>
+      <c r="F471">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="G471">
+        <v>4.72</v>
+      </c>
+      <c r="H471">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C472">
+        <v>9.11</v>
+      </c>
+      <c r="D472">
+        <v>6.23</v>
+      </c>
+      <c r="E472">
+        <v>11.46</v>
+      </c>
+      <c r="F472">
+        <v>10.53</v>
+      </c>
+      <c r="G472">
+        <v>5.29</v>
+      </c>
+      <c r="H472">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C473">
+        <v>9.41</v>
+      </c>
+      <c r="D473">
+        <v>6.48</v>
+      </c>
+      <c r="E473">
+        <v>12.34</v>
+      </c>
+      <c r="F473">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G473">
+        <v>4.63</v>
+      </c>
+      <c r="H473">
+        <v>8.7899999999999991</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C474">
+        <v>8.84</v>
+      </c>
+      <c r="D474">
+        <v>5.7</v>
+      </c>
+      <c r="E474">
+        <v>10.3</v>
+      </c>
+      <c r="F474">
+        <v>10.45</v>
+      </c>
+      <c r="G474">
+        <v>5.52</v>
+      </c>
+      <c r="H474">
+        <v>13.74</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>75</v>
+      </c>
+      <c r="C475">
+        <v>10.38</v>
+      </c>
+      <c r="D475">
+        <v>6.33</v>
+      </c>
+      <c r="E475">
+        <v>11.13</v>
+      </c>
+      <c r="F475">
+        <v>10.26</v>
+      </c>
+      <c r="G475">
+        <v>5.4</v>
+      </c>
+      <c r="H475">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C476">
+        <v>10.7</v>
+      </c>
+      <c r="D476">
+        <v>5.75</v>
+      </c>
+      <c r="E476">
+        <v>11.25</v>
+      </c>
+      <c r="F476">
+        <v>10.17</v>
+      </c>
+      <c r="G476">
+        <v>6.16</v>
+      </c>
+      <c r="H476">
+        <v>12.93</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C477">
+        <v>9.77</v>
+      </c>
+      <c r="D477">
+        <v>5.36</v>
+      </c>
+      <c r="E477">
+        <v>10.47</v>
+      </c>
+      <c r="F477">
+        <v>10.06</v>
+      </c>
+      <c r="G477">
+        <v>6.54</v>
+      </c>
+      <c r="H477">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C478">
+        <v>11.73</v>
+      </c>
+      <c r="D478">
+        <v>7.24</v>
+      </c>
+      <c r="E478">
+        <v>10.16</v>
+      </c>
+      <c r="F478">
+        <v>8.52</v>
+      </c>
+      <c r="G478">
+        <v>4.22</v>
+      </c>
+      <c r="H478">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C479">
+        <v>10.57</v>
+      </c>
+      <c r="D479">
+        <v>6.68</v>
+      </c>
+      <c r="E479">
+        <v>14.88</v>
+      </c>
+      <c r="F479">
+        <v>9.42</v>
+      </c>
+      <c r="G479">
+        <v>4.87</v>
+      </c>
+      <c r="H479">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C480">
+        <v>11.06</v>
+      </c>
+      <c r="D480">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="E480">
+        <v>11.5</v>
+      </c>
+      <c r="F480">
+        <v>9.34</v>
+      </c>
+      <c r="G480">
+        <v>4.34</v>
+      </c>
+      <c r="H480">
+        <v>11.04</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>76</v>
+      </c>
+      <c r="C481">
+        <v>9.02</v>
+      </c>
+      <c r="D481">
+        <v>5.91</v>
+      </c>
+      <c r="E481">
+        <v>15.94</v>
+      </c>
+      <c r="F481">
+        <v>9.4</v>
+      </c>
+      <c r="G481">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="H481">
+        <v>15.12</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C482">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="D482">
+        <v>5.36</v>
+      </c>
+      <c r="E482">
+        <v>15.25</v>
+      </c>
+      <c r="F482">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G482">
+        <v>4.93</v>
+      </c>
+      <c r="H482">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C483">
+        <v>9.4</v>
+      </c>
+      <c r="D483">
+        <v>5.21</v>
+      </c>
+      <c r="E483">
+        <v>15.35</v>
+      </c>
+      <c r="F483">
+        <v>9.59</v>
+      </c>
+      <c r="G483">
+        <v>4.93</v>
+      </c>
+      <c r="H483">
+        <v>13.59</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C484">
+        <v>9.15</v>
+      </c>
+      <c r="D484">
+        <v>5.26</v>
+      </c>
+      <c r="E484">
+        <v>13.7</v>
+      </c>
+      <c r="F484">
+        <v>10</v>
+      </c>
+      <c r="G484">
+        <v>4.5</v>
+      </c>
+      <c r="H484">
+        <v>12.06</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C485">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="D485">
+        <v>6.61</v>
+      </c>
+      <c r="E485">
+        <v>14.42</v>
+      </c>
+      <c r="F485">
+        <v>9.17</v>
+      </c>
+      <c r="G485">
+        <v>4.46</v>
+      </c>
+      <c r="H485">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C486">
+        <v>10.28</v>
+      </c>
+      <c r="D486">
+        <v>7.15</v>
+      </c>
+      <c r="E486">
+        <v>15</v>
+      </c>
+      <c r="F486">
+        <v>10.16</v>
+      </c>
+      <c r="G486">
+        <v>5.08</v>
+      </c>
+      <c r="H486">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>77</v>
+      </c>
+      <c r="C487">
+        <v>9.65</v>
+      </c>
+      <c r="D487">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E487">
+        <v>12.85</v>
+      </c>
+      <c r="F487">
+        <v>8.15</v>
+      </c>
+      <c r="G487">
+        <v>4.47</v>
+      </c>
+      <c r="H487">
+        <v>11.73</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C488">
+        <v>9.34</v>
+      </c>
+      <c r="D488">
+        <v>5.61</v>
+      </c>
+      <c r="E488">
+        <v>11.82</v>
+      </c>
+      <c r="F488">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="G488">
+        <v>3.39</v>
+      </c>
+      <c r="H488">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C489">
+        <v>8.89</v>
+      </c>
+      <c r="D489">
+        <v>4.87</v>
+      </c>
+      <c r="E489">
+        <v>12.78</v>
+      </c>
+      <c r="F489">
+        <v>7.56</v>
+      </c>
+      <c r="G489">
+        <v>4.34</v>
+      </c>
+      <c r="H489">
+        <v>11.16</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C490">
+        <v>10.73</v>
+      </c>
+      <c r="D490">
+        <v>5.46</v>
+      </c>
+      <c r="E490">
+        <v>11.64</v>
+      </c>
+      <c r="F490">
+        <v>7.95</v>
+      </c>
+      <c r="G490">
+        <v>3.68</v>
+      </c>
+      <c r="H490">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C491">
+        <v>8.89</v>
+      </c>
+      <c r="D491">
+        <v>5.21</v>
+      </c>
+      <c r="E491">
+        <v>13.23</v>
+      </c>
+      <c r="F491">
+        <v>7.62</v>
+      </c>
+      <c r="G491">
+        <v>4.07</v>
+      </c>
+      <c r="H491">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C492">
+        <v>9.02</v>
+      </c>
+      <c r="D492">
+        <v>4.76</v>
+      </c>
+      <c r="E492">
+        <v>12.82</v>
+      </c>
+      <c r="F492">
+        <v>7.95</v>
+      </c>
+      <c r="G492">
+        <v>2.86</v>
+      </c>
+      <c r="H492">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C493">
+        <v>10.42</v>
+      </c>
+      <c r="D493">
+        <v>5.47</v>
+      </c>
+      <c r="E493">
+        <v>11.92</v>
+      </c>
+      <c r="F493">
+        <v>7.87</v>
+      </c>
+      <c r="G493">
+        <v>3.91</v>
+      </c>
+      <c r="H493">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>78</v>
+      </c>
+      <c r="C494">
+        <v>9.34</v>
+      </c>
+      <c r="D494">
+        <v>6.78</v>
+      </c>
+      <c r="E494">
+        <v>13.88</v>
+      </c>
+      <c r="F494">
+        <v>8.83</v>
+      </c>
+      <c r="G494">
+        <v>5.09</v>
+      </c>
+      <c r="H494">
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C495">
+        <v>10.54</v>
+      </c>
+      <c r="D495">
+        <v>5.85</v>
+      </c>
+      <c r="E495">
+        <v>11.8</v>
+      </c>
+      <c r="F495">
+        <v>9.09</v>
+      </c>
+      <c r="G495">
+        <v>4.16</v>
+      </c>
+      <c r="H495">
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C496">
+        <v>10.42</v>
+      </c>
+      <c r="D496">
+        <v>5.46</v>
+      </c>
+      <c r="E496">
+        <v>11.86</v>
+      </c>
+      <c r="F496">
+        <v>9.15</v>
+      </c>
+      <c r="G496">
+        <v>4.07</v>
+      </c>
+      <c r="H496">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C497">
+        <v>10.36</v>
+      </c>
+      <c r="D497">
+        <v>5.51</v>
+      </c>
+      <c r="E497">
+        <v>9.25</v>
+      </c>
+      <c r="F497">
+        <v>9.69</v>
+      </c>
+      <c r="G497">
+        <v>4.13</v>
+      </c>
+      <c r="H497">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C498">
+        <v>9.91</v>
+      </c>
+      <c r="D498">
+        <v>5.85</v>
+      </c>
+      <c r="E498">
+        <v>11.09</v>
+      </c>
+      <c r="F498">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G498">
+        <v>4.74</v>
+      </c>
+      <c r="H498">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>79</v>
+      </c>
+      <c r="C499">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="D499">
+        <v>4.78</v>
+      </c>
+      <c r="E499">
+        <v>12.67</v>
+      </c>
+      <c r="F499">
+        <v>8.75</v>
+      </c>
+      <c r="G499">
+        <v>5.22</v>
+      </c>
+      <c r="H499">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C500">
+        <v>9.07</v>
+      </c>
+      <c r="D500">
+        <v>5.36</v>
+      </c>
+      <c r="E500">
+        <v>12.5</v>
+      </c>
+      <c r="F500">
+        <v>9.84</v>
+      </c>
+      <c r="G500">
+        <v>5.08</v>
+      </c>
+      <c r="H500">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C501">
+        <v>8.66</v>
+      </c>
+      <c r="D501">
+        <v>4.43</v>
+      </c>
+      <c r="E501">
+        <v>12.14</v>
+      </c>
+      <c r="F501">
+        <v>8.75</v>
+      </c>
+      <c r="G501">
+        <v>4.2</v>
+      </c>
+      <c r="H501">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C502">
+        <v>9.82</v>
+      </c>
+      <c r="D502">
+        <v>5.26</v>
+      </c>
+      <c r="E502">
+        <v>14.17</v>
+      </c>
+      <c r="F502">
+        <v>8.65</v>
+      </c>
+      <c r="G502">
+        <v>3.45</v>
+      </c>
+      <c r="H502">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C503">
+        <v>8.52</v>
+      </c>
+      <c r="D503">
+        <v>4.97</v>
+      </c>
+      <c r="E503">
+        <v>13.95</v>
+      </c>
+      <c r="F503">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="G503">
+        <v>4.78</v>
+      </c>
+      <c r="H503">
+        <v>9.9600000000000009</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C504">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="D504">
+        <v>5.01</v>
+      </c>
+      <c r="E504">
+        <v>15.62</v>
+      </c>
+      <c r="F504">
+        <v>8.02</v>
+      </c>
+      <c r="G504">
+        <v>4.47</v>
+      </c>
+      <c r="H504">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>80</v>
+      </c>
+      <c r="C505">
+        <v>8.73</v>
+      </c>
+      <c r="D505">
+        <v>5.74</v>
+      </c>
+      <c r="E505">
+        <v>13.22</v>
+      </c>
+      <c r="F505">
+        <v>9.23</v>
+      </c>
+      <c r="G505">
+        <v>5.85</v>
+      </c>
+      <c r="H505">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C506">
+        <v>7.53</v>
+      </c>
+      <c r="D506">
+        <v>5.64</v>
+      </c>
+      <c r="E506">
+        <v>13.03</v>
+      </c>
+      <c r="F506">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G506">
+        <v>5.08</v>
+      </c>
+      <c r="H506">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C507">
+        <v>8.06</v>
+      </c>
+      <c r="D507">
+        <v>5.97</v>
+      </c>
+      <c r="E507">
+        <v>11.93</v>
+      </c>
+      <c r="F507">
+        <v>7.64</v>
+      </c>
+      <c r="G507">
+        <v>4.45</v>
+      </c>
+      <c r="H507">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C508">
+        <v>7.78</v>
+      </c>
+      <c r="D508">
+        <v>6.35</v>
+      </c>
+      <c r="E508">
+        <v>12.41</v>
+      </c>
+      <c r="F508">
+        <v>9.86</v>
+      </c>
+      <c r="G508">
+        <v>4.88</v>
+      </c>
+      <c r="H508">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C509">
+        <v>8.26</v>
+      </c>
+      <c r="D509">
+        <v>5.83</v>
+      </c>
+      <c r="E509">
+        <v>13.82</v>
+      </c>
+      <c r="F509">
+        <v>9.23</v>
+      </c>
+      <c r="G509">
+        <v>5.59</v>
+      </c>
+      <c r="H509">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>81</v>
+      </c>
+      <c r="C510">
+        <v>9.52</v>
+      </c>
+      <c r="D510">
+        <v>5.62</v>
+      </c>
+      <c r="E510">
+        <v>15.37</v>
+      </c>
+      <c r="F510">
+        <v>8.83</v>
+      </c>
+      <c r="G510">
+        <v>5.35</v>
+      </c>
+      <c r="H510">
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C511">
+        <v>8.35</v>
+      </c>
+      <c r="D511">
+        <v>5.97</v>
+      </c>
+      <c r="E511">
+        <v>14.76</v>
+      </c>
+      <c r="F511">
+        <v>8.07</v>
+      </c>
+      <c r="G511">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H511">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C512">
+        <v>8.77</v>
+      </c>
+      <c r="D512">
+        <v>5.3</v>
+      </c>
+      <c r="E512">
+        <v>14.39</v>
+      </c>
+      <c r="F512">
+        <v>8.85</v>
+      </c>
+      <c r="G512">
+        <v>5.6</v>
+      </c>
+      <c r="H512">
+        <v>11.86</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C513">
+        <v>10.29</v>
+      </c>
+      <c r="D513">
+        <v>5.14</v>
+      </c>
+      <c r="E513">
+        <v>15.07</v>
+      </c>
+      <c r="F513">
+        <v>8.9</v>
+      </c>
+      <c r="G513">
+        <v>5.85</v>
+      </c>
+      <c r="H513">
+        <v>14.23</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>82</v>
+      </c>
+      <c r="C514">
+        <v>9.15</v>
+      </c>
+      <c r="D514">
+        <v>5.22</v>
+      </c>
+      <c r="E514">
+        <v>13.22</v>
+      </c>
+      <c r="F514">
+        <v>9.48</v>
+      </c>
+      <c r="G514">
+        <v>7.27</v>
+      </c>
+      <c r="H514">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C515">
+        <v>10.54</v>
+      </c>
+      <c r="D515">
+        <v>5.67</v>
+      </c>
+      <c r="E515">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="F515">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="G515">
+        <v>5.34</v>
+      </c>
+      <c r="H515">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C516">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="D516">
+        <v>4.62</v>
+      </c>
+      <c r="E516">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="F516">
+        <v>9.52</v>
+      </c>
+      <c r="G516">
+        <v>5.09</v>
+      </c>
+      <c r="H516">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C517">
+        <v>10.85</v>
+      </c>
+      <c r="D517">
+        <v>5.01</v>
+      </c>
+      <c r="E517">
+        <v>9.17</v>
+      </c>
+      <c r="F517">
+        <v>8.81</v>
+      </c>
+      <c r="G517">
+        <v>6.6</v>
+      </c>
+      <c r="H517">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C518">
+        <v>10.67</v>
+      </c>
+      <c r="D518">
+        <v>5.46</v>
+      </c>
+      <c r="E518">
+        <v>12.71</v>
+      </c>
+      <c r="F518">
+        <v>9.98</v>
+      </c>
+      <c r="G518">
+        <v>5.48</v>
+      </c>
+      <c r="H518">
+        <v>13.34</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C519">
+        <v>9.73</v>
+      </c>
+      <c r="D519">
+        <v>4.22</v>
+      </c>
+      <c r="E519">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="F519">
+        <v>9.34</v>
+      </c>
+      <c r="G519">
+        <v>5.89</v>
+      </c>
+      <c r="H519">
+        <v>9.5399999999999991</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>83</v>
+      </c>
+      <c r="C520">
+        <v>8.91</v>
+      </c>
+      <c r="D520">
+        <v>5.36</v>
+      </c>
+      <c r="E520">
+        <v>10.78</v>
+      </c>
+      <c r="F520">
+        <v>9.17</v>
+      </c>
+      <c r="G520">
+        <v>4.7</v>
+      </c>
+      <c r="H520">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C521">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="D521">
+        <v>6.54</v>
+      </c>
+      <c r="E521">
+        <v>13.78</v>
+      </c>
+      <c r="F521">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="G521">
+        <v>4.47</v>
+      </c>
+      <c r="H521">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C522">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="D522">
+        <v>5.85</v>
+      </c>
+      <c r="E522">
+        <v>11.21</v>
+      </c>
+      <c r="F522">
+        <v>8.99</v>
+      </c>
+      <c r="G522">
+        <v>4.45</v>
+      </c>
+      <c r="H522">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C523">
+        <v>9.16</v>
+      </c>
+      <c r="D523">
+        <v>4.95</v>
+      </c>
+      <c r="E523">
+        <v>11.08</v>
+      </c>
+      <c r="F523">
+        <v>10.59</v>
+      </c>
+      <c r="G523">
+        <v>5.59</v>
+      </c>
+      <c r="H523">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>84</v>
+      </c>
+      <c r="C524">
+        <v>10.43</v>
+      </c>
+      <c r="D524">
+        <v>6.35</v>
+      </c>
+      <c r="E524">
+        <v>13.27</v>
+      </c>
+      <c r="F524">
+        <v>9.42</v>
+      </c>
+      <c r="G524">
+        <v>6.51</v>
+      </c>
+      <c r="H524">
+        <v>16.07</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C525">
+        <v>10.42</v>
+      </c>
+      <c r="D525">
+        <v>5.8</v>
+      </c>
+      <c r="E525">
+        <v>13.66</v>
+      </c>
+      <c r="F525">
+        <v>10.3</v>
+      </c>
+      <c r="G525">
+        <v>6.37</v>
+      </c>
+      <c r="H525">
+        <v>13.07</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C526">
+        <v>10.18</v>
+      </c>
+      <c r="D526">
+        <v>5.08</v>
+      </c>
+      <c r="E526">
+        <v>13.28</v>
+      </c>
+      <c r="F526">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="G526">
+        <v>5.47</v>
+      </c>
+      <c r="H526">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C527">
+        <v>8.69</v>
+      </c>
+      <c r="D527">
+        <v>5.59</v>
+      </c>
+      <c r="E527">
+        <v>15.49</v>
+      </c>
+      <c r="F527">
+        <v>9.52</v>
+      </c>
+      <c r="G527">
+        <v>4.99</v>
+      </c>
+      <c r="H527">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C528">
+        <v>9.36</v>
+      </c>
+      <c r="D528">
+        <v>5.91</v>
+      </c>
+      <c r="E528">
+        <v>14.76</v>
+      </c>
+      <c r="F528">
+        <v>11.32</v>
+      </c>
+      <c r="G528">
+        <v>5.94</v>
+      </c>
+      <c r="H528">
+        <v>15.44</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C529">
+        <v>11.95</v>
+      </c>
+      <c r="D529">
+        <v>7.42</v>
+      </c>
+      <c r="E529">
+        <v>12.84</v>
+      </c>
+      <c r="F529">
+        <v>10.67</v>
+      </c>
+      <c r="G529">
+        <v>5.89</v>
+      </c>
+      <c r="H529">
+        <v>11.93</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C530">
+        <v>10.42</v>
+      </c>
+      <c r="D530">
+        <v>6.75</v>
+      </c>
+      <c r="E530">
+        <v>13.32</v>
+      </c>
+      <c r="F530">
+        <v>10.16</v>
+      </c>
+      <c r="G530">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="H530">
+        <v>13.42</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C531">
+        <v>10.56</v>
+      </c>
+      <c r="D531">
+        <v>6.68</v>
+      </c>
+      <c r="E531">
+        <v>13.81</v>
+      </c>
+      <c r="F531">
+        <v>8.39</v>
+      </c>
+      <c r="G531">
+        <v>4.97</v>
+      </c>
+      <c r="H531">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C532">
+        <v>11.2</v>
+      </c>
+      <c r="D532">
+        <v>5.87</v>
+      </c>
+      <c r="E532">
+        <v>13.78</v>
+      </c>
+      <c r="F532">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="G532">
+        <v>5.85</v>
+      </c>
+      <c r="H532">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C533">
+        <v>10.51</v>
+      </c>
+      <c r="D533">
+        <v>6.27</v>
+      </c>
+      <c r="E533">
+        <v>12.02</v>
+      </c>
+      <c r="F533">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="G533">
+        <v>5.97</v>
+      </c>
+      <c r="H533">
+        <v>14.02</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>85</v>
+      </c>
+      <c r="C534">
+        <v>10.71</v>
+      </c>
+      <c r="D534">
+        <v>6.38</v>
+      </c>
+      <c r="E534">
+        <v>11.33</v>
+      </c>
+      <c r="F534">
+        <v>10.16</v>
+      </c>
+      <c r="G534">
+        <v>6.55</v>
+      </c>
+      <c r="H534">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C535">
+        <v>9.84</v>
+      </c>
+      <c r="D535">
+        <v>5.47</v>
+      </c>
+      <c r="E535">
+        <v>12.85</v>
+      </c>
+      <c r="F535">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="G535">
+        <v>5.89</v>
+      </c>
+      <c r="H535">
+        <v>14.81</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C536">
+        <v>10.82</v>
+      </c>
+      <c r="D536">
+        <v>7.67</v>
+      </c>
+      <c r="E536">
+        <v>10.92</v>
+      </c>
+      <c r="F536">
+        <v>9.69</v>
+      </c>
+      <c r="G536">
+        <v>4.99</v>
+      </c>
+      <c r="H536">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C537">
+        <v>10.69</v>
+      </c>
+      <c r="D537">
+        <v>6.08</v>
+      </c>
+      <c r="E537">
+        <v>10.16</v>
+      </c>
+      <c r="F537">
+        <v>10.8</v>
+      </c>
+      <c r="G537">
+        <v>6.35</v>
+      </c>
+      <c r="H537">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C538">
+        <v>10.96</v>
+      </c>
+      <c r="D538">
+        <v>6.28</v>
+      </c>
+      <c r="E538">
+        <v>14.86</v>
+      </c>
+      <c r="F538">
+        <v>10.44</v>
+      </c>
+      <c r="G538">
+        <v>6.1</v>
+      </c>
+      <c r="H538">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>86</v>
+      </c>
+      <c r="C539">
+        <v>12.08</v>
+      </c>
+      <c r="D539">
+        <v>6.6</v>
+      </c>
+      <c r="E539">
+        <v>13.48</v>
+      </c>
+      <c r="F539">
+        <v>11.36</v>
+      </c>
+      <c r="G539">
+        <v>6.59</v>
+      </c>
+      <c r="H539">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C540">
+        <v>10.52</v>
+      </c>
+      <c r="D540">
+        <v>6.42</v>
+      </c>
+      <c r="E540">
+        <v>10.28</v>
+      </c>
+      <c r="F540">
+        <v>11.06</v>
+      </c>
+      <c r="G540">
+        <v>5.97</v>
+      </c>
+      <c r="H540">
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C541">
+        <v>10.36</v>
+      </c>
+      <c r="D541">
+        <v>5.36</v>
+      </c>
+      <c r="E541">
+        <v>11.72</v>
+      </c>
+      <c r="F541">
+        <v>10.31</v>
+      </c>
+      <c r="G541">
+        <v>6.24</v>
+      </c>
+      <c r="H541">
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C542">
+        <v>11.13</v>
+      </c>
+      <c r="D542">
+        <v>5.89</v>
+      </c>
+      <c r="E542">
+        <v>10.8</v>
+      </c>
+      <c r="F542">
+        <v>9.75</v>
+      </c>
+      <c r="G542">
+        <v>6.18</v>
+      </c>
+      <c r="H542">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C543">
+        <v>10.82</v>
+      </c>
+      <c r="D543">
+        <v>5.8</v>
+      </c>
+      <c r="E543">
+        <v>12.29</v>
+      </c>
+      <c r="F543">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="G543">
+        <v>5.86</v>
+      </c>
+      <c r="H543">
+        <v>11.78</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>87</v>
+      </c>
+      <c r="C544">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="D544">
+        <v>6.6</v>
+      </c>
+      <c r="E544">
+        <v>16.03</v>
+      </c>
+      <c r="F544">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="G544">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H544">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C545">
+        <v>10.35</v>
+      </c>
+      <c r="D545">
+        <v>4.7</v>
+      </c>
+      <c r="E545">
+        <v>12.59</v>
+      </c>
+      <c r="F545">
+        <v>10.62</v>
+      </c>
+      <c r="G545">
+        <v>5.78</v>
+      </c>
+      <c r="H545">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C546">
+        <v>8.92</v>
+      </c>
+      <c r="D546">
+        <v>5.08</v>
+      </c>
+      <c r="E546">
+        <v>15.71</v>
+      </c>
+      <c r="F546">
+        <v>10.26</v>
+      </c>
+      <c r="G546">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="H546">
+        <v>15.35</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C547">
+        <v>8.9</v>
+      </c>
+      <c r="D547">
+        <v>6.25</v>
+      </c>
+      <c r="E547">
+        <v>15.13</v>
+      </c>
+      <c r="F547">
+        <v>9.16</v>
+      </c>
+      <c r="G547">
+        <v>6.62</v>
+      </c>
+      <c r="H547">
+        <v>16.14</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C548">
+        <v>9.67</v>
+      </c>
+      <c r="D548">
+        <v>5.61</v>
+      </c>
+      <c r="E548">
+        <v>15.16</v>
+      </c>
+      <c r="F548">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="G548">
+        <v>5.76</v>
+      </c>
+      <c r="H548">
+        <v>15.56</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>88</v>
+      </c>
+      <c r="C549">
+        <v>9.74</v>
+      </c>
+      <c r="D549">
+        <v>6.3</v>
+      </c>
+      <c r="E549">
+        <v>11.42</v>
+      </c>
+      <c r="F549">
+        <v>10.1</v>
+      </c>
+      <c r="G549">
+        <v>7.36</v>
+      </c>
+      <c r="H549">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C550">
+        <v>12.1</v>
+      </c>
+      <c r="D550">
+        <v>6.59</v>
+      </c>
+      <c r="E550">
+        <v>11.25</v>
+      </c>
+      <c r="F550">
+        <v>9.81</v>
+      </c>
+      <c r="G550">
+        <v>6.62</v>
+      </c>
+      <c r="H550">
+        <v>12.04</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C551">
+        <v>10.96</v>
+      </c>
+      <c r="D551">
+        <v>6.63</v>
+      </c>
+      <c r="E551">
+        <v>13.76</v>
+      </c>
+      <c r="F551">
+        <v>10.16</v>
+      </c>
+      <c r="G551">
+        <v>6.5</v>
+      </c>
+      <c r="H551">
+        <v>13.64</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C552">
+        <v>10.77</v>
+      </c>
+      <c r="D552">
+        <v>5.55</v>
+      </c>
+      <c r="E552">
+        <v>11.1</v>
+      </c>
+      <c r="F552">
+        <v>10.64</v>
+      </c>
+      <c r="G552">
+        <v>6.65</v>
+      </c>
+      <c r="H552">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C553">
+        <v>10.98</v>
+      </c>
+      <c r="D553">
+        <v>6.3</v>
+      </c>
+      <c r="E553">
+        <v>12.45</v>
+      </c>
+      <c r="F553">
+        <v>12.11</v>
+      </c>
+      <c r="G553">
+        <v>6.27</v>
+      </c>
+      <c r="H553">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>89</v>
+      </c>
+      <c r="C554">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="D554">
+        <v>5.14</v>
+      </c>
+      <c r="E554">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="F554">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="G554">
+        <v>5.08</v>
+      </c>
+      <c r="H554">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C555">
+        <v>8.64</v>
+      </c>
+      <c r="D555">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E555">
+        <v>9.58</v>
+      </c>
+      <c r="F555">
+        <v>9.27</v>
+      </c>
+      <c r="G555">
+        <v>5.74</v>
+      </c>
+      <c r="H555">
+        <v>10.73</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C556">
+        <v>9.15</v>
+      </c>
+      <c r="D556">
+        <v>4.33</v>
+      </c>
+      <c r="E556">
+        <v>12.02</v>
+      </c>
+      <c r="F556">
+        <v>9.27</v>
+      </c>
+      <c r="G556">
+        <v>5.55</v>
+      </c>
+      <c r="H556">
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C557">
+        <v>9.83</v>
+      </c>
+      <c r="D557">
+        <v>5.93</v>
+      </c>
+      <c r="E557">
+        <v>11.33</v>
+      </c>
+      <c r="F557">
+        <v>8.26</v>
+      </c>
+      <c r="G557">
+        <v>4.63</v>
+      </c>
+      <c r="H557">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C558">
+        <v>9.89</v>
+      </c>
+      <c r="D558">
+        <v>5.95</v>
+      </c>
+      <c r="E558">
+        <v>12.63</v>
+      </c>
+      <c r="F558">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="G558">
+        <v>4.83</v>
+      </c>
+      <c r="H558">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>90</v>
+      </c>
+      <c r="C559">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="D559">
+        <v>5.21</v>
+      </c>
+      <c r="E559">
+        <v>10.79</v>
+      </c>
+      <c r="F559">
+        <v>9.27</v>
+      </c>
+      <c r="G559">
+        <v>5.43</v>
+      </c>
+      <c r="H559">
+        <v>8.89</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C560">
+        <v>9.4</v>
+      </c>
+      <c r="D560">
+        <v>4.87</v>
+      </c>
+      <c r="E560">
+        <v>10.91</v>
+      </c>
+      <c r="F560">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="G560">
+        <v>3.94</v>
+      </c>
+      <c r="H560">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C561">
+        <v>9.4</v>
+      </c>
+      <c r="D561">
+        <v>6.28</v>
+      </c>
+      <c r="E561">
+        <v>9.92</v>
+      </c>
+      <c r="F561">
+        <v>8.68</v>
+      </c>
+      <c r="G561">
+        <v>3.81</v>
+      </c>
+      <c r="H561">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C562">
+        <v>10.8</v>
+      </c>
+      <c r="D562">
+        <v>6.19</v>
+      </c>
+      <c r="E562">
+        <v>14.49</v>
+      </c>
+      <c r="F562">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="G562">
+        <v>4.93</v>
+      </c>
+      <c r="H562">
+        <v>11.81</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>91</v>
+      </c>
+      <c r="C563">
+        <v>9.14</v>
+      </c>
+      <c r="D563">
+        <v>6.45</v>
+      </c>
+      <c r="E563">
+        <v>11.38</v>
+      </c>
+      <c r="F563">
+        <v>9.42</v>
+      </c>
+      <c r="G563">
+        <v>6.23</v>
+      </c>
+      <c r="H563">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C564">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D564">
+        <v>6.01</v>
+      </c>
+      <c r="E564">
+        <v>12.33</v>
+      </c>
+      <c r="F564">
+        <v>9.84</v>
+      </c>
+      <c r="G564">
+        <v>5.97</v>
+      </c>
+      <c r="H564">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C565">
+        <v>9.66</v>
+      </c>
+      <c r="D565">
+        <v>5.64</v>
+      </c>
+      <c r="E565">
+        <v>13.61</v>
+      </c>
+      <c r="F565">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="G565">
+        <v>6.37</v>
+      </c>
+      <c r="H565">
+        <v>11.19</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C566">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="D566">
+        <v>5.28</v>
+      </c>
+      <c r="E566">
+        <v>12.43</v>
+      </c>
+      <c r="F566">
+        <v>10.82</v>
+      </c>
+      <c r="G566">
+        <v>6.43</v>
+      </c>
+      <c r="H566">
+        <v>10.87</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C567">
+        <v>10.06</v>
+      </c>
+      <c r="D567">
+        <v>4.75</v>
+      </c>
+      <c r="E567">
+        <v>10.43</v>
+      </c>
+      <c r="F567">
+        <v>10.19</v>
+      </c>
+      <c r="G567">
+        <v>6.3</v>
+      </c>
+      <c r="H567">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>92</v>
+      </c>
+      <c r="C568">
+        <v>10.02</v>
+      </c>
+      <c r="D568">
+        <v>6.49</v>
+      </c>
+      <c r="E568">
+        <v>14.75</v>
+      </c>
+      <c r="F568">
+        <v>10.75</v>
+      </c>
+      <c r="G568">
+        <v>5.73</v>
+      </c>
+      <c r="H568">
+        <v>14.67</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C569">
+        <v>10.67</v>
+      </c>
+      <c r="D569">
+        <v>6.16</v>
+      </c>
+      <c r="E569">
+        <v>12.65</v>
+      </c>
+      <c r="F569">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="G569">
+        <v>4.71</v>
+      </c>
+      <c r="H569">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C570">
+        <v>10.59</v>
+      </c>
+      <c r="D570">
+        <v>5.34</v>
+      </c>
+      <c r="E570">
+        <v>10</v>
+      </c>
+      <c r="F570">
+        <v>9.41</v>
+      </c>
+      <c r="G570">
+        <v>4.32</v>
+      </c>
+      <c r="H570">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C571">
+        <v>10.4</v>
+      </c>
+      <c r="D571">
+        <v>4.28</v>
+      </c>
+      <c r="E571">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="F571">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="G571">
+        <v>4.72</v>
+      </c>
+      <c r="H571">
+        <v>15.46</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C572">
+        <v>10.47</v>
+      </c>
+      <c r="D572">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E572">
+        <v>13.21</v>
+      </c>
+      <c r="F572">
+        <v>12.01</v>
+      </c>
+      <c r="G572">
+        <v>7.04</v>
+      </c>
+      <c r="H572">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C573">
+        <v>7.75</v>
+      </c>
+      <c r="D573">
+        <v>3.94</v>
+      </c>
+      <c r="E573">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="F573">
+        <v>8.39</v>
+      </c>
+      <c r="G573">
+        <v>5.12</v>
+      </c>
+      <c r="H573">
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C574">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="D574">
+        <v>5.46</v>
+      </c>
+      <c r="E574">
+        <v>12.59</v>
+      </c>
+      <c r="F574">
+        <v>9.66</v>
+      </c>
+      <c r="G574">
+        <v>5.58</v>
+      </c>
+      <c r="H574">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C575">
+        <v>9.16</v>
+      </c>
+      <c r="D575">
+        <v>5.23</v>
+      </c>
+      <c r="E575">
+        <v>9.23</v>
+      </c>
+      <c r="F575">
+        <v>10.3</v>
+      </c>
+      <c r="G575">
+        <v>6.23</v>
+      </c>
+      <c r="H575">
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C576">
+        <v>10.42</v>
+      </c>
+      <c r="D576">
+        <v>5.7</v>
+      </c>
+      <c r="E576">
+        <v>13.97</v>
+      </c>
+      <c r="F576">
+        <v>7.55</v>
+      </c>
+      <c r="G576">
+        <v>5.83</v>
+      </c>
+      <c r="H576">
+        <v>14.18</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C577">
+        <v>10.33</v>
+      </c>
+      <c r="D577">
+        <v>4.71</v>
+      </c>
+      <c r="E577">
+        <v>13.33</v>
+      </c>
+      <c r="F577">
+        <v>10.68</v>
+      </c>
+      <c r="G577">
+        <v>6.73</v>
+      </c>
+      <c r="H577">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>93</v>
+      </c>
+      <c r="C578">
+        <v>9.64</v>
+      </c>
+      <c r="D578">
+        <v>6.96</v>
+      </c>
+      <c r="E578">
+        <v>10.69</v>
+      </c>
+      <c r="F578">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="G578">
+        <v>4.32</v>
+      </c>
+      <c r="H578">
+        <v>10.54</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C579">
+        <v>10.52</v>
+      </c>
+      <c r="D579">
+        <v>5.39</v>
+      </c>
+      <c r="E579">
+        <v>10.41</v>
+      </c>
+      <c r="F579">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="G579">
+        <v>4.96</v>
+      </c>
+      <c r="H579">
+        <v>13.22</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C580">
+        <v>9.76</v>
+      </c>
+      <c r="D580">
+        <v>5.98</v>
+      </c>
+      <c r="E580">
+        <v>11.92</v>
+      </c>
+      <c r="F580">
+        <v>10.07</v>
+      </c>
+      <c r="G580">
+        <v>5.58</v>
+      </c>
+      <c r="H580">
+        <v>12.81</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C581">
+        <v>10.68</v>
+      </c>
+      <c r="D581">
+        <v>5.42</v>
+      </c>
+      <c r="E581">
+        <v>12.72</v>
+      </c>
+      <c r="F581">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G581">
+        <v>5.7</v>
+      </c>
+      <c r="H581">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C582">
+        <v>9.76</v>
+      </c>
+      <c r="D582">
+        <v>6.87</v>
+      </c>
+      <c r="E582">
+        <v>11.66</v>
+      </c>
+      <c r="F582">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="G582">
+        <v>4.22</v>
+      </c>
+      <c r="H582">
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C583">
+        <v>10.45</v>
+      </c>
+      <c r="D583">
+        <v>6.28</v>
+      </c>
+      <c r="E583">
+        <v>12.65</v>
+      </c>
+      <c r="F583">
+        <v>7.6</v>
+      </c>
+      <c r="G583">
+        <v>4.49</v>
+      </c>
+      <c r="H583">
+        <v>9.49</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>94</v>
+      </c>
+      <c r="C584">
+        <v>10.46</v>
+      </c>
+      <c r="D584">
+        <v>6.9</v>
+      </c>
+      <c r="E584">
+        <v>11.43</v>
+      </c>
+      <c r="F584">
+        <v>8.35</v>
+      </c>
+      <c r="G584">
+        <v>7.21</v>
+      </c>
+      <c r="H584">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C585">
+        <v>11.44</v>
+      </c>
+      <c r="D585">
+        <v>4.78</v>
+      </c>
+      <c r="E585">
+        <v>9.39</v>
+      </c>
+      <c r="F585">
+        <v>8.92</v>
+      </c>
+      <c r="G585">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H585">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C586">
+        <v>10.28</v>
+      </c>
+      <c r="D586">
+        <v>7.56</v>
+      </c>
+      <c r="E586">
+        <v>10.49</v>
+      </c>
+      <c r="F586">
+        <v>9.4</v>
+      </c>
+      <c r="G586">
+        <v>6.55</v>
+      </c>
+      <c r="H586">
+        <v>13.38</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C587">
+        <v>9.94</v>
+      </c>
+      <c r="D587">
+        <v>7.04</v>
+      </c>
+      <c r="E587">
+        <v>12.69</v>
+      </c>
+      <c r="F587">
+        <v>10.59</v>
+      </c>
+      <c r="G587">
+        <v>6.35</v>
+      </c>
+      <c r="H587">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C588">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="D588">
+        <v>7.45</v>
+      </c>
+      <c r="E588">
+        <v>13.97</v>
+      </c>
+      <c r="F588">
+        <v>9.02</v>
+      </c>
+      <c r="G588">
+        <v>6.36</v>
+      </c>
+      <c r="H588">
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C589">
+        <v>9.11</v>
+      </c>
+      <c r="D589">
+        <v>5.67</v>
+      </c>
+      <c r="E589">
+        <v>12.38</v>
+      </c>
+      <c r="F589">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="G589">
+        <v>6.75</v>
+      </c>
+      <c r="H589">
+        <v>14.24</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>95</v>
+      </c>
+      <c r="C590">
+        <v>10.47</v>
+      </c>
+      <c r="D590">
+        <v>7.12</v>
+      </c>
+      <c r="E590">
+        <v>9.06</v>
+      </c>
+      <c r="F590">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="G590">
+        <v>6.16</v>
+      </c>
+      <c r="H590">
+        <v>12.86</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C591">
+        <v>10.43</v>
+      </c>
+      <c r="D591">
+        <v>7.11</v>
+      </c>
+      <c r="E591">
+        <v>10.43</v>
+      </c>
+      <c r="F591">
+        <v>8.66</v>
+      </c>
+      <c r="G591">
+        <v>6.18</v>
+      </c>
+      <c r="H591">
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C592">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="D592">
+        <v>6.96</v>
+      </c>
+      <c r="E592">
+        <v>10.81</v>
+      </c>
+      <c r="F592">
+        <v>8.52</v>
+      </c>
+      <c r="G592">
+        <v>6.36</v>
+      </c>
+      <c r="H592">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C593">
+        <v>9.27</v>
+      </c>
+      <c r="D593">
+        <v>6.54</v>
+      </c>
+      <c r="E593">
+        <v>12.65</v>
+      </c>
+      <c r="F593">
+        <v>8.19</v>
+      </c>
+      <c r="G593">
+        <v>6.23</v>
+      </c>
+      <c r="H593">
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C594">
+        <v>9.31</v>
+      </c>
+      <c r="D594">
+        <v>6.73</v>
+      </c>
+      <c r="E594">
+        <v>13.28</v>
+      </c>
+      <c r="F594">
+        <v>10.38</v>
+      </c>
+      <c r="G594">
+        <v>6.08</v>
+      </c>
+      <c r="H594">
+        <v>15.64</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>96</v>
+      </c>
+      <c r="C595">
+        <v>11.3</v>
+      </c>
+      <c r="D595">
+        <v>6.5</v>
+      </c>
+      <c r="E595">
+        <v>13.46</v>
+      </c>
+      <c r="F595">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G595">
+        <v>5.21</v>
+      </c>
+      <c r="H595">
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C596">
+        <v>10.41</v>
+      </c>
+      <c r="D596">
+        <v>5.47</v>
+      </c>
+      <c r="E596">
+        <v>13.99</v>
+      </c>
+      <c r="F596">
+        <v>9.65</v>
+      </c>
+      <c r="G596">
+        <v>5.34</v>
+      </c>
+      <c r="H596">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C597">
+        <v>10.8</v>
+      </c>
+      <c r="D597">
+        <v>5.73</v>
+      </c>
+      <c r="E597">
+        <v>13.99</v>
+      </c>
+      <c r="F597">
+        <v>10.11</v>
+      </c>
+      <c r="G597">
+        <v>5.76</v>
+      </c>
+      <c r="H597">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C598">
+        <v>11.05</v>
+      </c>
+      <c r="D598">
+        <v>5.62</v>
+      </c>
+      <c r="E598">
+        <v>12.11</v>
+      </c>
+      <c r="F598">
+        <v>10.17</v>
+      </c>
+      <c r="G598">
+        <v>5.64</v>
+      </c>
+      <c r="H598">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>97</v>
+      </c>
+      <c r="C599">
+        <v>8.39</v>
+      </c>
+      <c r="D599">
+        <v>6.02</v>
+      </c>
+      <c r="E599">
+        <v>14.14</v>
+      </c>
+      <c r="F599">
+        <v>6.21</v>
+      </c>
+      <c r="G599">
+        <v>3.35</v>
+      </c>
+      <c r="H599">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C600">
+        <v>10.14</v>
+      </c>
+      <c r="D600">
+        <v>5.7</v>
+      </c>
+      <c r="E600">
+        <v>13.01</v>
+      </c>
+      <c r="F600">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="G600">
+        <v>3.26</v>
+      </c>
+      <c r="H600">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C601">
+        <v>8.9</v>
+      </c>
+      <c r="D601">
+        <v>5.16</v>
+      </c>
+      <c r="E601">
+        <v>12.85</v>
+      </c>
+      <c r="F601">
+        <v>8.01</v>
+      </c>
+      <c r="G601">
+        <v>4.43</v>
+      </c>
+      <c r="H601">
+        <v>14.22</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C602">
+        <v>9.56</v>
+      </c>
+      <c r="D602">
+        <v>4.57</v>
+      </c>
+      <c r="E602">
+        <v>12.53</v>
+      </c>
+      <c r="F602">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="G602">
+        <v>4.32</v>
+      </c>
+      <c r="H602">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C603">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D603">
+        <v>5.97</v>
+      </c>
+      <c r="E603">
+        <v>11.95</v>
+      </c>
+      <c r="F603">
+        <v>8.14</v>
+      </c>
+      <c r="G603">
+        <v>4.46</v>
+      </c>
+      <c r="H603">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C604">
+        <v>9.67</v>
+      </c>
+      <c r="D604">
+        <v>6.71</v>
+      </c>
+      <c r="E604">
+        <v>13.36</v>
+      </c>
+      <c r="F604">
+        <v>10.29</v>
+      </c>
+      <c r="G604">
+        <v>5.47</v>
+      </c>
+      <c r="H604">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C605">
+        <v>10.15</v>
+      </c>
+      <c r="D605">
+        <v>6.97</v>
+      </c>
+      <c r="E605">
+        <v>12.17</v>
+      </c>
+      <c r="F605">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="G605">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="H605">
+        <v>10.74</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>98</v>
+      </c>
+      <c r="C606">
+        <v>10.8</v>
+      </c>
+      <c r="D606">
+        <v>6.1</v>
+      </c>
+      <c r="E606">
+        <v>13.17</v>
+      </c>
+      <c r="F606">
+        <v>9.15</v>
+      </c>
+      <c r="G606">
+        <v>5.33</v>
+      </c>
+      <c r="H606">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C607">
+        <v>10.31</v>
+      </c>
+      <c r="D607">
+        <v>4.95</v>
+      </c>
+      <c r="E607">
+        <v>12.15</v>
+      </c>
+      <c r="F607">
+        <v>9.92</v>
+      </c>
+      <c r="G607">
+        <v>5.21</v>
+      </c>
+      <c r="H607">
+        <v>9.7899999999999991</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C608">
+        <v>10.15</v>
+      </c>
+      <c r="D608">
+        <v>6.28</v>
+      </c>
+      <c r="E608">
+        <v>10.4</v>
+      </c>
+      <c r="F608">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G608">
+        <v>5.64</v>
+      </c>
+      <c r="H608">
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C609">
+        <v>9.69</v>
+      </c>
+      <c r="D609">
+        <v>5.59</v>
+      </c>
+      <c r="E609">
+        <v>8.4</v>
+      </c>
+      <c r="F609">
+        <v>9.69</v>
+      </c>
+      <c r="G609">
+        <v>5.72</v>
+      </c>
+      <c r="H609">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C610">
+        <v>10.4</v>
+      </c>
+      <c r="D610">
+        <v>5.91</v>
+      </c>
+      <c r="E610">
+        <v>12.81</v>
+      </c>
+      <c r="F610">
+        <v>10.17</v>
+      </c>
+      <c r="G610">
+        <v>5.74</v>
+      </c>
+      <c r="H610">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>99</v>
+      </c>
+      <c r="C611">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="D611">
+        <v>7.56</v>
+      </c>
+      <c r="E611">
+        <v>11.12</v>
+      </c>
+      <c r="F611">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="G611">
+        <v>4.58</v>
+      </c>
+      <c r="H611">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C612">
+        <v>9.52</v>
+      </c>
+      <c r="D612">
+        <v>6.61</v>
+      </c>
+      <c r="E612">
+        <v>11.55</v>
+      </c>
+      <c r="F612">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="G612">
+        <v>4.51</v>
+      </c>
+      <c r="H612">
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C613">
+        <v>9.41</v>
+      </c>
+      <c r="D613">
+        <v>6.23</v>
+      </c>
+      <c r="E613">
+        <v>13.66</v>
+      </c>
+      <c r="F613">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="G613">
+        <v>4.57</v>
+      </c>
+      <c r="H613">
+        <v>10.98</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C614">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D614">
+        <v>5.73</v>
+      </c>
+      <c r="E614">
+        <v>11.03</v>
+      </c>
+      <c r="F614">
+        <v>9.06</v>
+      </c>
+      <c r="G614">
+        <v>4.32</v>
+      </c>
+      <c r="H614">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C615">
+        <v>8.9</v>
+      </c>
+      <c r="D615">
+        <v>6.49</v>
+      </c>
+      <c r="E615">
+        <v>11.98</v>
+      </c>
+      <c r="F615">
+        <v>7.7</v>
+      </c>
+      <c r="G615">
+        <v>4.62</v>
+      </c>
+      <c r="H615">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>100</v>
+      </c>
+      <c r="C616">
+        <v>7.54</v>
+      </c>
+      <c r="D616">
+        <v>3.69</v>
+      </c>
+      <c r="E616">
+        <v>11.73</v>
+      </c>
+      <c r="F616">
+        <v>9.4</v>
+      </c>
+      <c r="G616">
+        <v>4.51</v>
+      </c>
+      <c r="H616">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C617">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="D617">
+        <v>3.56</v>
+      </c>
+      <c r="E617">
+        <v>13.12</v>
+      </c>
+      <c r="F617">
+        <v>10.66</v>
+      </c>
+      <c r="G617">
+        <v>4.66</v>
+      </c>
+      <c r="H617">
+        <v>12.02</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C618">
+        <v>8.25</v>
+      </c>
+      <c r="D618">
+        <v>4.38</v>
+      </c>
+      <c r="E618">
+        <v>9.98</v>
+      </c>
+      <c r="F618">
+        <v>13.06</v>
+      </c>
+      <c r="G618">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H618">
+        <v>9.0399999999999991</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C619">
+        <v>8.08</v>
+      </c>
+      <c r="D619">
+        <v>4.38</v>
+      </c>
+      <c r="E619">
+        <v>11.05</v>
+      </c>
+      <c r="F619">
+        <v>9.18</v>
+      </c>
+      <c r="G619">
+        <v>4.32</v>
+      </c>
+      <c r="H619">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C620">
+        <v>9.36</v>
+      </c>
+      <c r="D620">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="E620">
+        <v>14.26</v>
+      </c>
+      <c r="F620">
+        <v>9.94</v>
+      </c>
+      <c r="G620">
+        <v>4.74</v>
+      </c>
+      <c r="H620">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C621">
+        <v>8.68</v>
+      </c>
+      <c r="D621">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E621">
+        <v>11.44</v>
+      </c>
+      <c r="F621">
+        <v>9.43</v>
+      </c>
+      <c r="G621">
+        <v>4.45</v>
+      </c>
+      <c r="H621">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>101</v>
+      </c>
+      <c r="C622">
+        <v>9.23</v>
+      </c>
+      <c r="D622">
+        <v>6.41</v>
+      </c>
+      <c r="E622">
+        <v>13.33</v>
+      </c>
+      <c r="F622">
+        <v>7.79</v>
+      </c>
+      <c r="G622">
+        <v>5.21</v>
+      </c>
+      <c r="H622">
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C623">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="D623">
+        <v>4.01</v>
+      </c>
+      <c r="E623">
+        <v>13.9</v>
+      </c>
+      <c r="F623">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="G623">
+        <v>5.41</v>
+      </c>
+      <c r="H623">
+        <v>10.77</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C624">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="D624">
+        <v>6.35</v>
+      </c>
+      <c r="E624">
+        <v>14.52</v>
+      </c>
+      <c r="F624">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="G624">
+        <v>5.58</v>
+      </c>
+      <c r="H624">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C625">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="D625">
+        <v>5.61</v>
+      </c>
+      <c r="E625">
+        <v>14.07</v>
+      </c>
+      <c r="F625">
+        <v>8.65</v>
+      </c>
+      <c r="G625">
+        <v>4.93</v>
+      </c>
+      <c r="H625">
+        <v>10.93</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C626">
+        <v>12.78</v>
+      </c>
+      <c r="D626">
+        <v>5.74</v>
+      </c>
+      <c r="E626">
+        <v>14.32</v>
+      </c>
+      <c r="F626">
+        <v>10.33</v>
+      </c>
+      <c r="G626">
+        <v>4.5</v>
+      </c>
+      <c r="H626">
+        <v>10.72</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>102</v>
+      </c>
+      <c r="C627">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D627">
+        <v>3.74</v>
+      </c>
+      <c r="E627">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F627">
+        <v>9.18</v>
+      </c>
+      <c r="G627">
+        <v>6.48</v>
+      </c>
+      <c r="H627">
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C628">
+        <v>9.25</v>
+      </c>
+      <c r="D628">
+        <v>3.43</v>
+      </c>
+      <c r="E628">
+        <v>9.25</v>
+      </c>
+      <c r="F628">
+        <v>9.16</v>
+      </c>
+      <c r="G628">
+        <v>6</v>
+      </c>
+      <c r="H628">
+        <v>12.84</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C629">
+        <v>8.81</v>
+      </c>
+      <c r="D629">
+        <v>3.84</v>
+      </c>
+      <c r="E629">
+        <v>11.43</v>
+      </c>
+      <c r="F629">
+        <v>10.1</v>
+      </c>
+      <c r="G629">
+        <v>6.41</v>
+      </c>
+      <c r="H629">
+        <v>14.01</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C630">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="D630">
+        <v>5.64</v>
+      </c>
+      <c r="E630">
+        <v>10.1</v>
+      </c>
+      <c r="F630">
+        <v>10.29</v>
+      </c>
+      <c r="G630">
+        <v>6.23</v>
+      </c>
+      <c r="H630">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>103</v>
+      </c>
+      <c r="C631">
+        <v>10.33</v>
+      </c>
+      <c r="D631">
+        <v>7.74</v>
+      </c>
+      <c r="E631">
+        <v>18.03</v>
+      </c>
+      <c r="F631">
+        <v>9.4</v>
+      </c>
+      <c r="G631">
+        <v>5.58</v>
+      </c>
+      <c r="H631">
+        <v>12.52</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C632">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="D632">
+        <v>7.88</v>
+      </c>
+      <c r="E632">
+        <v>10.54</v>
+      </c>
+      <c r="F632">
+        <v>9.15</v>
+      </c>
+      <c r="G632">
+        <v>6.1</v>
+      </c>
+      <c r="H632">
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C633">
+        <v>7.67</v>
+      </c>
+      <c r="D633">
+        <v>6.6</v>
+      </c>
+      <c r="E633">
+        <v>9.81</v>
+      </c>
+      <c r="F633">
+        <v>9.4</v>
+      </c>
+      <c r="G633">
+        <v>5.68</v>
+      </c>
+      <c r="H633">
+        <v>13.97</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C634">
+        <v>9.56</v>
+      </c>
+      <c r="D634">
+        <v>6.25</v>
+      </c>
+      <c r="E634">
+        <v>15.36</v>
+      </c>
+      <c r="F634">
+        <v>11</v>
+      </c>
+      <c r="G634">
+        <v>5.87</v>
+      </c>
+      <c r="H634">
+        <v>16.059999999999999</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C635">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="D635">
+        <v>6.48</v>
+      </c>
+      <c r="E635">
+        <v>10.38</v>
+      </c>
+      <c r="F635">
+        <v>9.86</v>
+      </c>
+      <c r="G635">
+        <v>5.7</v>
+      </c>
+      <c r="H635">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>104</v>
+      </c>
+      <c r="C636">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="D636">
+        <v>5.64</v>
+      </c>
+      <c r="E636">
+        <v>14.4</v>
+      </c>
+      <c r="F636">
+        <v>7.21</v>
+      </c>
+      <c r="G636">
+        <v>5.46</v>
+      </c>
+      <c r="H636">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C637">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="D637">
+        <v>5.74</v>
+      </c>
+      <c r="E637">
+        <v>13.47</v>
+      </c>
+      <c r="F637">
+        <v>7.4</v>
+      </c>
+      <c r="G637">
+        <v>5.21</v>
+      </c>
+      <c r="H637">
+        <v>14.47</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C638">
+        <v>9.65</v>
+      </c>
+      <c r="D638">
+        <v>5.47</v>
+      </c>
+      <c r="E638">
+        <v>12.66</v>
+      </c>
+      <c r="F638">
+        <v>7.97</v>
+      </c>
+      <c r="G638">
+        <v>5.48</v>
+      </c>
+      <c r="H638">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C639">
+        <v>10.32</v>
+      </c>
+      <c r="D639">
+        <v>7.51</v>
+      </c>
+      <c r="E639">
+        <v>12.53</v>
+      </c>
+      <c r="F639">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="G639">
+        <v>4.66</v>
+      </c>
+      <c r="H639">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C640">
+        <v>10.95</v>
+      </c>
+      <c r="D640">
+        <v>5.66</v>
+      </c>
+      <c r="E640">
+        <v>14.71</v>
+      </c>
+      <c r="F640">
+        <v>7.5</v>
+      </c>
+      <c r="G640">
+        <v>5.76</v>
+      </c>
+      <c r="H640">
+        <v>13.77</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>105</v>
+      </c>
+      <c r="C641">
+        <v>10.81</v>
+      </c>
+      <c r="D641">
+        <v>6.66</v>
+      </c>
+      <c r="E641">
+        <v>12.32</v>
+      </c>
+      <c r="F641">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="G641">
+        <v>5.47</v>
+      </c>
+      <c r="H641">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C642">
+        <v>9.52</v>
+      </c>
+      <c r="D642">
+        <v>5.36</v>
+      </c>
+      <c r="E642">
+        <v>11.56</v>
+      </c>
+      <c r="F642">
+        <v>10.26</v>
+      </c>
+      <c r="G642">
+        <v>5.53</v>
+      </c>
+      <c r="H642">
+        <v>15.36</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C643">
+        <v>8.76</v>
+      </c>
+      <c r="D643">
+        <v>4.32</v>
+      </c>
+      <c r="E643">
+        <v>13.98</v>
+      </c>
+      <c r="F643">
+        <v>9.92</v>
+      </c>
+      <c r="G643">
+        <v>5.67</v>
+      </c>
+      <c r="H643">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C644">
+        <v>9.48</v>
+      </c>
+      <c r="D644">
+        <v>4.3</v>
+      </c>
+      <c r="E644">
+        <v>14.17</v>
+      </c>
+      <c r="F644">
+        <v>9.56</v>
+      </c>
+      <c r="G644">
+        <v>5.93</v>
+      </c>
+      <c r="H644">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C645">
+        <v>11.06</v>
+      </c>
+      <c r="D645">
+        <v>6.38</v>
+      </c>
+      <c r="E645">
+        <v>14.63</v>
+      </c>
+      <c r="F645">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="G645">
+        <v>5.84</v>
+      </c>
+      <c r="H645">
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C646">
+        <v>9.15</v>
+      </c>
+      <c r="D646">
+        <v>5.64</v>
+      </c>
+      <c r="E646">
+        <v>12.97</v>
+      </c>
+      <c r="F646">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="G646">
+        <v>5.73</v>
+      </c>
+      <c r="H646">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C647">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="D647">
+        <v>4.46</v>
+      </c>
+      <c r="E647">
+        <v>12.38</v>
+      </c>
+      <c r="F647">
+        <v>9.86</v>
+      </c>
+      <c r="G647">
+        <v>6.55</v>
+      </c>
+      <c r="H647">
+        <v>14.19</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>106</v>
+      </c>
+      <c r="C648">
+        <v>9.94</v>
+      </c>
+      <c r="D648">
+        <v>5.22</v>
+      </c>
+      <c r="E648">
+        <v>12.88</v>
+      </c>
+      <c r="F648">
+        <v>10.17</v>
+      </c>
+      <c r="G648">
+        <v>5.83</v>
+      </c>
+      <c r="H648">
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C649">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="D649">
+        <v>5.43</v>
+      </c>
+      <c r="E649">
+        <v>12.69</v>
+      </c>
+      <c r="F649">
+        <v>9.92</v>
+      </c>
+      <c r="G649">
+        <v>5.62</v>
+      </c>
+      <c r="H649">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C650">
+        <v>10.07</v>
+      </c>
+      <c r="D650">
+        <v>4.53</v>
+      </c>
+      <c r="E650">
+        <v>13.09</v>
+      </c>
+      <c r="F650">
+        <v>10</v>
+      </c>
+      <c r="G650">
+        <v>6.72</v>
+      </c>
+      <c r="H650">
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C651">
+        <v>10.51</v>
+      </c>
+      <c r="D651">
+        <v>5.07</v>
+      </c>
+      <c r="E651">
+        <v>11.12</v>
+      </c>
+      <c r="F651">
+        <v>9.86</v>
+      </c>
+      <c r="G651">
+        <v>6.45</v>
+      </c>
+      <c r="H651">
+        <v>11.12</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>107</v>
+      </c>
+      <c r="C652">
+        <v>8.67</v>
+      </c>
+      <c r="D652">
+        <v>6.61</v>
+      </c>
+      <c r="E652">
+        <v>15.84</v>
+      </c>
+      <c r="F652">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="G652">
+        <v>5.45</v>
+      </c>
+      <c r="H652">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C653">
+        <v>9.65</v>
+      </c>
+      <c r="D653">
+        <v>6.75</v>
+      </c>
+      <c r="E653">
+        <v>14.74</v>
+      </c>
+      <c r="F653">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="G653">
+        <v>5.87</v>
+      </c>
+      <c r="H653">
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C654">
+        <v>10.16</v>
+      </c>
+      <c r="D654">
+        <v>6</v>
+      </c>
+      <c r="E654">
+        <v>14.9</v>
+      </c>
+      <c r="F654">
+        <v>8.64</v>
+      </c>
+      <c r="G654">
+        <v>5.97</v>
+      </c>
+      <c r="H654">
+        <v>15.65</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C655">
+        <v>10.83</v>
+      </c>
+      <c r="D655">
+        <v>5.72</v>
+      </c>
+      <c r="E655">
+        <v>14.23</v>
+      </c>
+      <c r="F655">
+        <v>9.67</v>
+      </c>
+      <c r="G655">
+        <v>6.35</v>
+      </c>
+      <c r="H655">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C656">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="D656">
+        <v>6.24</v>
+      </c>
+      <c r="E656">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="F656">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="G656">
+        <v>5.46</v>
+      </c>
+      <c r="H656">
+        <v>17.04</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C657">
+        <v>9.73</v>
+      </c>
+      <c r="D657">
+        <v>4.96</v>
+      </c>
+      <c r="E657">
+        <v>16.39</v>
+      </c>
+      <c r="F657">
+        <v>10.88</v>
+      </c>
+      <c r="G657">
+        <v>5.5</v>
+      </c>
+      <c r="H657">
+        <v>16.350000000000001</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C658">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="D658">
+        <v>5.62</v>
+      </c>
+      <c r="E658">
+        <v>15.66</v>
+      </c>
+      <c r="F658">
+        <v>10.55</v>
+      </c>
+      <c r="G658">
+        <v>5.37</v>
+      </c>
+      <c r="H658">
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C659">
+        <v>10.18</v>
+      </c>
+      <c r="D659">
+        <v>5.33</v>
+      </c>
+      <c r="E659">
+        <v>15.79</v>
+      </c>
+      <c r="F659">
+        <v>11.06</v>
+      </c>
+      <c r="G659">
+        <v>6.2</v>
+      </c>
+      <c r="H659">
+        <v>19.87</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>108</v>
+      </c>
+      <c r="C660">
+        <v>10.89</v>
+      </c>
+      <c r="D660">
+        <v>7.28</v>
+      </c>
+      <c r="E660">
+        <v>11.55</v>
+      </c>
+      <c r="F660">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="G660">
+        <v>5.26</v>
+      </c>
+      <c r="H660">
+        <v>10.73</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C661">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="D661">
+        <v>6.42</v>
+      </c>
+      <c r="E661">
+        <v>10.87</v>
+      </c>
+      <c r="F661">
+        <v>9.14</v>
+      </c>
+      <c r="G661">
+        <v>5.6</v>
+      </c>
+      <c r="H661">
+        <v>13.67</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C662">
+        <v>8.98</v>
+      </c>
+      <c r="D662">
+        <v>7.73</v>
+      </c>
+      <c r="E662">
+        <v>10.85</v>
+      </c>
+      <c r="F662">
+        <v>7.75</v>
+      </c>
+      <c r="G662">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H662">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C663">
+        <v>9.15</v>
+      </c>
+      <c r="D663">
+        <v>6.02</v>
+      </c>
+      <c r="E663">
+        <v>8.16</v>
+      </c>
+      <c r="F663">
+        <v>9.31</v>
+      </c>
+      <c r="G663">
+        <v>4.41</v>
+      </c>
+      <c r="H663">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C664">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D664">
+        <v>5.21</v>
+      </c>
+      <c r="E664">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="F664">
+        <v>8.26</v>
+      </c>
+      <c r="G664">
+        <v>5.72</v>
+      </c>
+      <c r="H664">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>109</v>
+      </c>
+      <c r="C665">
+        <v>8.76</v>
+      </c>
+      <c r="D665">
+        <v>5.41</v>
+      </c>
+      <c r="E665">
+        <v>11.33</v>
+      </c>
+      <c r="F665">
+        <v>8.9</v>
+      </c>
+      <c r="G665">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="H665">
+        <v>10.220000000000001</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C666">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="D666">
+        <v>4.49</v>
+      </c>
+      <c r="E666">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="F666">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="G666">
+        <v>3.56</v>
+      </c>
+      <c r="H666">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C667">
+        <v>8.51</v>
+      </c>
+      <c r="D667">
+        <v>3.91</v>
+      </c>
+      <c r="E667">
+        <v>10.26</v>
+      </c>
+      <c r="F667">
+        <v>8.69</v>
+      </c>
+      <c r="G667">
+        <v>3.56</v>
+      </c>
+      <c r="H667">
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C668">
+        <v>9.36</v>
+      </c>
+      <c r="D668">
+        <v>4.5</v>
+      </c>
+      <c r="E668">
+        <v>10.24</v>
+      </c>
+      <c r="F668">
+        <v>10.43</v>
+      </c>
+      <c r="G668">
+        <v>4.32</v>
+      </c>
+      <c r="H668">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C669">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="D669">
+        <v>6.73</v>
+      </c>
+      <c r="E669">
+        <v>13.25</v>
+      </c>
+      <c r="F669">
+        <v>8.76</v>
+      </c>
+      <c r="G669">
+        <v>5.58</v>
+      </c>
+      <c r="H669">
+        <v>11.53</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C670">
+        <v>8.77</v>
+      </c>
+      <c r="D670">
+        <v>5.72</v>
+      </c>
+      <c r="E670">
+        <v>11.73</v>
+      </c>
+      <c r="F670">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="G670">
+        <v>6.05</v>
+      </c>
+      <c r="H670">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C671">
+        <v>8.77</v>
+      </c>
+      <c r="D671">
+        <v>4.95</v>
+      </c>
+      <c r="E671">
+        <v>9.41</v>
+      </c>
+      <c r="F671">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G671">
+        <v>4.76</v>
+      </c>
+      <c r="H671">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>110</v>
+      </c>
+      <c r="C672">
+        <v>9.81</v>
+      </c>
+      <c r="D672">
+        <v>7.25</v>
+      </c>
+      <c r="E672">
+        <v>8.9</v>
+      </c>
+      <c r="F672">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="G672">
+        <v>5.64</v>
+      </c>
+      <c r="H672">
+        <v>9.64</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C673">
+        <v>9.66</v>
+      </c>
+      <c r="D673">
+        <v>6.02</v>
+      </c>
+      <c r="E673">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="F673">
+        <v>9.41</v>
+      </c>
+      <c r="G673">
+        <v>4.88</v>
+      </c>
+      <c r="H673">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C674">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D674">
+        <v>6.55</v>
+      </c>
+      <c r="E674">
+        <v>10.35</v>
+      </c>
+      <c r="F674">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="G674">
+        <v>4.95</v>
+      </c>
+      <c r="H674">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C675">
+        <v>9.52</v>
+      </c>
+      <c r="D675">
+        <v>6.62</v>
+      </c>
+      <c r="E675">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="F675">
+        <v>9.16</v>
+      </c>
+      <c r="G675">
+        <v>4.01</v>
+      </c>
+      <c r="H675">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C676">
+        <v>10.29</v>
+      </c>
+      <c r="D676">
+        <v>6.13</v>
+      </c>
+      <c r="E676">
+        <v>11.82</v>
+      </c>
+      <c r="F676">
+        <v>10</v>
+      </c>
+      <c r="G676">
+        <v>4.91</v>
+      </c>
+      <c r="H676">
+        <v>10.73</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C677">
+        <v>9.31</v>
+      </c>
+      <c r="D677">
+        <v>6.87</v>
+      </c>
+      <c r="E677">
+        <v>12.7</v>
+      </c>
+      <c r="F677">
+        <v>9.93</v>
+      </c>
+      <c r="G677">
+        <v>6.88</v>
+      </c>
+      <c r="H677">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>111</v>
+      </c>
+      <c r="C678">
+        <v>10.35</v>
+      </c>
+      <c r="D678">
+        <v>5.93</v>
+      </c>
+      <c r="E678">
+        <v>10.33</v>
+      </c>
+      <c r="F678">
+        <v>10.69</v>
+      </c>
+      <c r="G678">
+        <v>6.83</v>
+      </c>
+      <c r="H678">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C679">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="D679">
+        <v>5.21</v>
+      </c>
+      <c r="E679">
+        <v>10.41</v>
+      </c>
+      <c r="F679">
+        <v>9.24</v>
+      </c>
+      <c r="G679">
+        <v>5.45</v>
+      </c>
+      <c r="H679">
+        <v>11.82</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C680">
+        <v>10.08</v>
+      </c>
+      <c r="D680">
+        <v>5.08</v>
+      </c>
+      <c r="E680">
+        <v>10.67</v>
+      </c>
+      <c r="F680">
+        <v>9.64</v>
+      </c>
+      <c r="G680">
+        <v>5.45</v>
+      </c>
+      <c r="H680">
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C681">
+        <v>9.89</v>
+      </c>
+      <c r="D681">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E681">
+        <v>11.21</v>
+      </c>
+      <c r="F681">
+        <v>9.6</v>
+      </c>
+      <c r="G681">
+        <v>5.62</v>
+      </c>
+      <c r="H681">
+        <v>11.72</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C682">
+        <v>8.67</v>
+      </c>
+      <c r="D682">
+        <v>4.7</v>
+      </c>
+      <c r="E682">
+        <v>9.27</v>
+      </c>
+      <c r="F682">
+        <v>9.66</v>
+      </c>
+      <c r="G682">
+        <v>5.87</v>
+      </c>
+      <c r="H682">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>112</v>
+      </c>
+      <c r="C683">
+        <v>10.06</v>
+      </c>
+      <c r="D683">
+        <v>4.49</v>
+      </c>
+      <c r="E683">
+        <v>11.16</v>
+      </c>
+      <c r="F683">
+        <v>9.99</v>
+      </c>
+      <c r="G683">
+        <v>4.34</v>
+      </c>
+      <c r="H683">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C684">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="D684">
+        <v>5.59</v>
+      </c>
+      <c r="E684">
+        <v>11.78</v>
+      </c>
+      <c r="F684">
+        <v>9.89</v>
+      </c>
+      <c r="G684">
+        <v>5.78</v>
+      </c>
+      <c r="H684">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C685">
+        <v>11.53</v>
+      </c>
+      <c r="D685">
+        <v>6.98</v>
+      </c>
+      <c r="E685">
+        <v>13.56</v>
+      </c>
+      <c r="F685">
+        <v>9.16</v>
+      </c>
+      <c r="G685">
+        <v>7.27</v>
+      </c>
+      <c r="H685">
+        <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C686">
+        <v>10.08</v>
+      </c>
+      <c r="D686">
+        <v>8.59</v>
+      </c>
+      <c r="E686">
+        <v>7.95</v>
+      </c>
+      <c r="F686">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="G686">
+        <v>4.72</v>
+      </c>
+      <c r="H686">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C687">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="D687">
+        <v>5.26</v>
+      </c>
+      <c r="E687">
+        <v>11.71</v>
+      </c>
+      <c r="F687">
+        <v>9.48</v>
+      </c>
+      <c r="G687">
+        <v>6.29</v>
+      </c>
+      <c r="H687">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>113</v>
+      </c>
+      <c r="C688">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="D688">
+        <v>3.94</v>
+      </c>
+      <c r="E688">
+        <v>12.44</v>
+      </c>
+      <c r="F688">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="G688">
+        <v>4.95</v>
+      </c>
+      <c r="H688">
+        <v>13.28</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C689">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D689">
+        <v>3.94</v>
+      </c>
+      <c r="E689">
+        <v>12.04</v>
+      </c>
+      <c r="F689">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="G689">
+        <v>4.2</v>
+      </c>
+      <c r="H689">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C690">
+        <v>9.52</v>
+      </c>
+      <c r="D690">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E690">
+        <v>12.21</v>
+      </c>
+      <c r="F690">
+        <v>8.83</v>
+      </c>
+      <c r="G690">
+        <v>4.45</v>
+      </c>
+      <c r="H690">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C691">
+        <v>9.92</v>
+      </c>
+      <c r="D691">
+        <v>4.24</v>
+      </c>
+      <c r="E691">
+        <v>11.4</v>
+      </c>
+      <c r="F691">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="G691">
+        <v>5.46</v>
+      </c>
+      <c r="H691">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C692">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="D692">
+        <v>4.83</v>
+      </c>
+      <c r="E692">
+        <v>13.2</v>
+      </c>
+      <c r="F692">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="G692">
+        <v>5.78</v>
+      </c>
+      <c r="H692">
+        <v>10.52</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>114</v>
+      </c>
+      <c r="C693" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>115</v>
+      </c>
+      <c r="C694" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>116</v>
+      </c>
+      <c r="C695" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>117</v>
+      </c>
+      <c r="C696" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>118</v>
+      </c>
+      <c r="C697" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>119</v>
+      </c>
+      <c r="C698" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>120</v>
+      </c>
+      <c r="C699">
+        <v>9.6</v>
+      </c>
+      <c r="D699">
+        <v>4.16</v>
+      </c>
+      <c r="E699">
+        <v>11.87</v>
+      </c>
+      <c r="F699">
+        <v>10.08</v>
+      </c>
+      <c r="G699">
+        <v>5.21</v>
+      </c>
+      <c r="H699">
+        <v>11.61</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C700">
+        <v>7.55</v>
+      </c>
+      <c r="D700">
+        <v>5.38</v>
+      </c>
+      <c r="E700">
+        <v>12.21</v>
+      </c>
+      <c r="F700">
+        <v>8.82</v>
+      </c>
+      <c r="G700">
+        <v>5.59</v>
+      </c>
+      <c r="H700">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C701">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="D701">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E701">
+        <v>12.62</v>
+      </c>
+      <c r="F701">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="G701">
+        <v>5.37</v>
+      </c>
+      <c r="H701">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C702">
+        <v>7.67</v>
+      </c>
+      <c r="D702">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E702">
+        <v>10.87</v>
+      </c>
+      <c r="F702">
+        <v>8.76</v>
+      </c>
+      <c r="G702">
+        <v>5.5</v>
+      </c>
+      <c r="H702">
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C703">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="D703">
+        <v>4.87</v>
+      </c>
+      <c r="E703">
+        <v>14.3</v>
+      </c>
+      <c r="F703">
+        <v>9.02</v>
+      </c>
+      <c r="G703">
+        <v>5.87</v>
+      </c>
+      <c r="H703">
+        <v>15.52</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>121</v>
+      </c>
+      <c r="C704">
+        <v>7.17</v>
+      </c>
+      <c r="D704">
+        <v>5.01</v>
+      </c>
+      <c r="E704">
+        <v>11.06</v>
+      </c>
+      <c r="F704">
+        <v>9.14</v>
+      </c>
+      <c r="G704">
+        <v>5.08</v>
+      </c>
+      <c r="H704">
+        <v>8.7899999999999991</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C705">
+        <v>7.92</v>
+      </c>
+      <c r="D705">
+        <v>5.12</v>
+      </c>
+      <c r="E705">
+        <v>9.77</v>
+      </c>
+      <c r="F705">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="G705">
+        <v>5.89</v>
+      </c>
+      <c r="H705">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C706">
+        <v>6.89</v>
+      </c>
+      <c r="D706">
+        <v>4.54</v>
+      </c>
+      <c r="E706">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="F706">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="G706">
+        <v>5.43</v>
+      </c>
+      <c r="H706">
+        <v>8.64</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C707">
+        <v>9.35</v>
+      </c>
+      <c r="D707">
+        <v>5.52</v>
+      </c>
+      <c r="E707">
+        <v>12.32</v>
+      </c>
+      <c r="F707">
+        <v>7.95</v>
+      </c>
+      <c r="G707">
+        <v>5.08</v>
+      </c>
+      <c r="H707">
+        <v>9.7799999999999994</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C708">
+        <v>8.51</v>
+      </c>
+      <c r="D708">
+        <v>5.97</v>
+      </c>
+      <c r="E708">
+        <v>9.92</v>
+      </c>
+      <c r="F708">
+        <v>8.26</v>
+      </c>
+      <c r="G708">
+        <v>4.83</v>
+      </c>
+      <c r="H708">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C709">
+        <v>6.87</v>
+      </c>
+      <c r="D709">
+        <v>5.8</v>
+      </c>
+      <c r="E709">
+        <v>11.65</v>
+      </c>
+      <c r="F709">
+        <v>8.26</v>
+      </c>
+      <c r="G709">
+        <v>4.45</v>
+      </c>
+      <c r="H709">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C710">
+        <v>6.87</v>
+      </c>
+      <c r="D710">
+        <v>5.35</v>
+      </c>
+      <c r="E710">
+        <v>11.77</v>
+      </c>
+      <c r="F710">
+        <v>9.44</v>
+      </c>
+      <c r="G710">
+        <v>5.7</v>
+      </c>
+      <c r="H710">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>122</v>
+      </c>
+      <c r="C711" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>123</v>
+      </c>
+      <c r="C712">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="D712">
+        <v>5.74</v>
+      </c>
+      <c r="E712">
+        <v>11.17</v>
+      </c>
+      <c r="F712">
+        <v>12</v>
+      </c>
+      <c r="G712">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="H712">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C713">
+        <v>10.57</v>
+      </c>
+      <c r="D713">
+        <v>5.59</v>
+      </c>
+      <c r="E713">
+        <v>10.8</v>
+      </c>
+      <c r="F713">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G713">
+        <v>4.99</v>
+      </c>
+      <c r="H713">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C714">
+        <v>11.46</v>
+      </c>
+      <c r="D714">
+        <v>7.25</v>
+      </c>
+      <c r="E714">
+        <v>10.44</v>
+      </c>
+      <c r="F714">
+        <v>9.56</v>
+      </c>
+      <c r="G714">
+        <v>4.96</v>
+      </c>
+      <c r="H714">
+        <v>10.61</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C715">
+        <v>10.55</v>
+      </c>
+      <c r="D715">
+        <v>5.98</v>
+      </c>
+      <c r="E715">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F715">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="G715">
+        <v>5.46</v>
+      </c>
+      <c r="H715">
+        <v>14.04</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C716">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="D716">
+        <v>5.49</v>
+      </c>
+      <c r="E716">
+        <v>9.15</v>
+      </c>
+      <c r="F716">
+        <v>10.17</v>
+      </c>
+      <c r="G716">
+        <v>5.79</v>
+      </c>
+      <c r="H716">
+        <v>9.39</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>124</v>
+      </c>
+      <c r="C717" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>125</v>
+      </c>
+      <c r="C718" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>126</v>
+      </c>
+      <c r="C719" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>127</v>
+      </c>
+      <c r="C720" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>128</v>
+      </c>
+      <c r="C721" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>